--- a/Results/Act/RR/Results_world_act_RR_full.xlsx
+++ b/Results/Act/RR/Results_world_act_RR_full.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285157676107</v>
+        <v>262.0285148604052</v>
       </c>
       <c r="E2">
-        <v>302.576472359623</v>
+        <v>302.5764706694521</v>
       </c>
       <c r="F2">
-        <v>500.209478186194</v>
+        <v>500.2094743393292</v>
       </c>
       <c r="G2">
-        <v>370.5935892970826</v>
+        <v>370.5935785681758</v>
       </c>
       <c r="H2">
-        <v>948.9858235276984</v>
+        <v>948.985790502242</v>
       </c>
       <c r="I2">
-        <v>545.279112142541</v>
+        <v>545.2789722598837</v>
       </c>
       <c r="J2">
-        <v>608.5024529731209</v>
+        <v>608.5018439238312</v>
       </c>
       <c r="K2">
-        <v>699.9198758102953</v>
+        <v>699.9173040344945</v>
       </c>
       <c r="L2">
-        <v>557.8909475442468</v>
+        <v>557.8817751757928</v>
       </c>
       <c r="M2">
-        <v>684.5551156797284</v>
+        <v>684.5223763130116</v>
       </c>
       <c r="N2">
-        <v>347.2373066733246</v>
+        <v>347.1270944596828</v>
       </c>
       <c r="O2">
-        <v>385.4110145168227</v>
+        <v>385.1171167457879</v>
       </c>
       <c r="P2">
-        <v>773.414641399286</v>
+        <v>772.6072188544334</v>
       </c>
       <c r="Q2">
-        <v>781.5189455630251</v>
+        <v>779.7317897802878</v>
       </c>
       <c r="R2">
-        <v>789.8104956991278</v>
+        <v>786.9865348617385</v>
       </c>
       <c r="S2">
-        <v>1975.959913669798</v>
+        <v>1973.323568728806</v>
       </c>
       <c r="T2">
-        <v>1978.375092341375</v>
+        <v>1976.897758471411</v>
       </c>
       <c r="U2">
-        <v>1983.528285419491</v>
+        <v>1982.336475688938</v>
       </c>
       <c r="V2">
-        <v>1992.006162328984</v>
+        <v>1990.032896043163</v>
       </c>
       <c r="W2">
-        <v>2000.885792488582</v>
+        <v>1998.010923807207</v>
       </c>
       <c r="X2">
-        <v>1837.952703993667</v>
+        <v>1833.909071961676</v>
       </c>
       <c r="Y2">
-        <v>1848.767417532295</v>
+        <v>1843.219747684501</v>
       </c>
       <c r="Z2">
-        <v>1858.020412712695</v>
+        <v>1851.480355144363</v>
       </c>
       <c r="AA2">
-        <v>1868.208421154674</v>
+        <v>1860.381805469905</v>
       </c>
       <c r="AB2">
-        <v>1888.460685929571</v>
+        <v>1876.097896673994</v>
       </c>
       <c r="AC2">
-        <v>571.787893197795</v>
+        <v>551.8400758214442</v>
       </c>
       <c r="AD2">
-        <v>605.0830933960041</v>
+        <v>576.5053359699635</v>
       </c>
       <c r="AE2">
-        <v>637.6484341670669</v>
+        <v>600.7477330089805</v>
       </c>
       <c r="AF2">
-        <v>640.6742896718837</v>
+        <v>605.140503867865</v>
       </c>
       <c r="AG2">
-        <v>636.1515460043349</v>
+        <v>604.5705909744461</v>
       </c>
       <c r="AH2">
-        <v>454.648067195354</v>
+        <v>424.0058085610365</v>
       </c>
       <c r="AI2">
-        <v>454.922283762562</v>
+        <v>427.1153153994613</v>
       </c>
       <c r="AJ2">
-        <v>453.9300934697296</v>
+        <v>429.6190223824073</v>
       </c>
       <c r="AK2">
-        <v>456.2955629568993</v>
+        <v>434.6618306651027</v>
       </c>
       <c r="AL2">
-        <v>487.5063495803451</v>
+        <v>459.4603437275881</v>
       </c>
       <c r="AM2">
-        <v>547.570375794596</v>
+        <v>504.0064561545738</v>
       </c>
       <c r="AN2">
-        <v>613.2291429114982</v>
+        <v>552.5178182377111</v>
       </c>
       <c r="AO2">
-        <v>702.8422645109597</v>
+        <v>617.3479826798196</v>
       </c>
       <c r="AP2">
-        <v>815.0979109684906</v>
+        <v>697.5150190330617</v>
       </c>
       <c r="AQ2">
-        <v>877.3335417299437</v>
+        <v>743.7342179632411</v>
       </c>
       <c r="AR2">
-        <v>891.9075435819418</v>
+        <v>757.5585837208563</v>
       </c>
       <c r="AS2">
-        <v>899.8516866584854</v>
+        <v>766.5598265629735</v>
       </c>
       <c r="AT2">
-        <v>901.2516009275075</v>
+        <v>770.6932051640264</v>
       </c>
       <c r="AU2">
-        <v>896.7988984033789</v>
+        <v>770.3516466473237</v>
       </c>
       <c r="AV2">
-        <v>905.749258817195</v>
+        <v>781.8957675523294</v>
       </c>
       <c r="AW2">
-        <v>904.8618367807161</v>
+        <v>784.0240659049232</v>
       </c>
       <c r="AX2">
-        <v>1094.705678384495</v>
+        <v>983.4503052273855</v>
       </c>
       <c r="AY2">
-        <v>1028.819307525419</v>
+        <v>939.7166239316239</v>
       </c>
       <c r="AZ2">
-        <v>937.1139830889734</v>
+        <v>878.2092525583736</v>
       </c>
       <c r="BA2">
-        <v>898.6399839472796</v>
+        <v>852.5673774933986</v>
       </c>
       <c r="BB2">
-        <v>878.3422289522625</v>
+        <v>830.7852632163826</v>
       </c>
       <c r="BC2">
-        <v>874.6248914865286</v>
+        <v>829.0046704993543</v>
       </c>
       <c r="BD2">
-        <v>859.1853029570448</v>
+        <v>819.530622783905</v>
       </c>
       <c r="BE2">
-        <v>841.1543571755225</v>
+        <v>808.6341580855158</v>
       </c>
       <c r="BF2">
-        <v>832.9738219944531</v>
+        <v>804.8067141786748</v>
       </c>
       <c r="BG2">
-        <v>811.4982320252261</v>
+        <v>784.0382601222415</v>
       </c>
       <c r="BH2">
-        <v>830.2579424410745</v>
+        <v>799.4595926579689</v>
       </c>
       <c r="BI2">
-        <v>869.6371741463835</v>
+        <v>829.2128558547631</v>
       </c>
       <c r="BJ2">
-        <v>929.2685014918161</v>
+        <v>872.9881243879819</v>
       </c>
       <c r="BK2">
-        <v>1002.798634582516</v>
+        <v>926.4194260175407</v>
       </c>
       <c r="BL2">
-        <v>1064.435170764306</v>
+        <v>965.6627387842748</v>
       </c>
       <c r="BM2">
-        <v>1139.358728093535</v>
+        <v>1020.421103349141</v>
       </c>
       <c r="BN2">
-        <v>1187.989322707649</v>
+        <v>1057.418510883189</v>
       </c>
       <c r="BO2">
-        <v>1209.051334339897</v>
+        <v>1075.727194736018</v>
       </c>
       <c r="BP2">
-        <v>1216.991514523114</v>
+        <v>1085.06598928655</v>
       </c>
       <c r="BQ2">
-        <v>1207.103975111254</v>
+        <v>1077.879380995093</v>
       </c>
       <c r="BR2">
-        <v>1209.172903728828</v>
+        <v>1083.079733205592</v>
       </c>
       <c r="BS2">
-        <v>1210.867877767941</v>
+        <v>1087.811972699912</v>
       </c>
       <c r="BT2">
-        <v>1209.552694748106</v>
+        <v>1090.269485484967</v>
       </c>
       <c r="BU2">
-        <v>1194.943294420759</v>
+        <v>1083.481988000026</v>
       </c>
       <c r="BV2">
-        <v>1141.449641473796</v>
+        <v>1045.912032090966</v>
       </c>
       <c r="BW2">
-        <v>1093.887049754398</v>
+        <v>1016.50175109346</v>
       </c>
       <c r="BX2">
-        <v>1067.609861055381</v>
+        <v>1001.309020613349</v>
       </c>
       <c r="BY2">
-        <v>1060.945600108709</v>
+        <v>999.2489288065125</v>
       </c>
       <c r="BZ2">
-        <v>1057.05225215708</v>
+        <v>998.9765376378174</v>
       </c>
       <c r="CA2">
-        <v>1035.566417573358</v>
+        <v>982.3466015357296</v>
       </c>
       <c r="CB2">
-        <v>1028.925993802252</v>
+        <v>980.3769247216574</v>
       </c>
       <c r="CC2">
-        <v>1029.614437796831</v>
+        <v>983.4498139676218</v>
       </c>
       <c r="CD2">
-        <v>1042.361509307403</v>
+        <v>994.8126525151993</v>
       </c>
       <c r="CE2">
-        <v>1071.304564173402</v>
+        <v>1017.296843575799</v>
       </c>
       <c r="CF2">
-        <v>1102.286212506484</v>
+        <v>1036.364095686723</v>
       </c>
       <c r="CG2">
-        <v>1163.446836827227</v>
+        <v>1081.211416924037</v>
       </c>
       <c r="CH2">
-        <v>1232.14044791625</v>
+        <v>1131.334331966544</v>
       </c>
       <c r="CI2">
-        <v>1299.471372777817</v>
+        <v>1180.694699576967</v>
       </c>
       <c r="CJ2">
-        <v>1356.081806259562</v>
+        <v>1222.930844871791</v>
       </c>
       <c r="CK2">
-        <v>1373.025754535969</v>
+        <v>1231.549840636995</v>
       </c>
       <c r="CL2">
-        <v>1393.357348616551</v>
+        <v>1249.587800434849</v>
       </c>
       <c r="CM2">
-        <v>1402.088494382296</v>
+        <v>1259.791838541893</v>
       </c>
       <c r="CN2">
-        <v>1405.579332876184</v>
+        <v>1266.428643146837</v>
       </c>
       <c r="CO2">
-        <v>1406.883100589607</v>
+        <v>1271.530661812464</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49072132380686</v>
+        <v>16.4907212641697</v>
       </c>
       <c r="E3">
-        <v>24.70205559786599</v>
+        <v>24.70205545285</v>
       </c>
       <c r="F3">
-        <v>42.41225701786847</v>
+        <v>42.41225669870469</v>
       </c>
       <c r="G3">
-        <v>30.64991075869825</v>
+        <v>30.64990992744678</v>
       </c>
       <c r="H3">
-        <v>83.24215936335047</v>
+        <v>83.24215698122475</v>
       </c>
       <c r="I3">
-        <v>46.6399985951528</v>
+        <v>46.63998891749631</v>
       </c>
       <c r="J3">
-        <v>52.18527701351938</v>
+        <v>52.18523562288762</v>
       </c>
       <c r="K3">
-        <v>60.14658271267061</v>
+        <v>60.14640915093968</v>
       </c>
       <c r="L3">
-        <v>47.29258868310582</v>
+        <v>47.29197135309858</v>
       </c>
       <c r="M3">
-        <v>58.59152288354496</v>
+        <v>58.58932184638222</v>
       </c>
       <c r="N3">
-        <v>27.72234441551882</v>
+        <v>27.71493838700412</v>
       </c>
       <c r="O3">
-        <v>31.54990040891911</v>
+        <v>31.53015514412685</v>
       </c>
       <c r="P3">
-        <v>66.63894792000227</v>
+        <v>66.58470728247978</v>
       </c>
       <c r="Q3">
-        <v>67.49233492511495</v>
+        <v>67.37228683218051</v>
       </c>
       <c r="R3">
-        <v>68.37513992839455</v>
+        <v>68.18545393822579</v>
       </c>
       <c r="S3">
-        <v>175.7235091532305</v>
+        <v>175.5464254587147</v>
       </c>
       <c r="T3">
-        <v>175.5898303122235</v>
+        <v>175.4905924672057</v>
       </c>
       <c r="U3">
-        <v>175.8890718328086</v>
+        <v>175.8090124644504</v>
       </c>
       <c r="V3">
-        <v>176.715460490019</v>
+        <v>176.5829168677141</v>
       </c>
       <c r="W3">
-        <v>177.6037132451279</v>
+        <v>177.4106168699205</v>
       </c>
       <c r="X3">
-        <v>162.9795051405207</v>
+        <v>162.7079080744619</v>
       </c>
       <c r="Y3">
-        <v>164.1749273330988</v>
+        <v>163.8023108432988</v>
       </c>
       <c r="Z3">
-        <v>165.1206444811463</v>
+        <v>164.6813734630458</v>
       </c>
       <c r="AA3">
-        <v>166.2133980699286</v>
+        <v>165.687714594211</v>
       </c>
       <c r="AB3">
-        <v>168.9060384788571</v>
+        <v>168.0756827344379</v>
       </c>
       <c r="AC3">
-        <v>51.08360720869153</v>
+        <v>49.74380343518468</v>
       </c>
       <c r="AD3">
-        <v>55.82256144355834</v>
+        <v>53.90312801810553</v>
       </c>
       <c r="AE3">
-        <v>60.43027777178865</v>
+        <v>57.95183354872739</v>
       </c>
       <c r="AF3">
-        <v>60.30970650515396</v>
+        <v>57.92306795887359</v>
       </c>
       <c r="AG3">
-        <v>58.95755141007771</v>
+        <v>56.83640007159852</v>
       </c>
       <c r="AH3">
-        <v>42.20339729402482</v>
+        <v>40.14528834057766</v>
       </c>
       <c r="AI3">
-        <v>41.5186246505239</v>
+        <v>39.6509407185401</v>
       </c>
       <c r="AJ3">
-        <v>40.57846844541091</v>
+        <v>38.94557714650792</v>
       </c>
       <c r="AK3">
-        <v>40.11477371677302</v>
+        <v>38.6616945649205</v>
       </c>
       <c r="AL3">
-        <v>44.18794412038087</v>
+        <v>42.30417307429357</v>
       </c>
       <c r="AM3">
-        <v>52.80188629888221</v>
+        <v>49.87584312134876</v>
       </c>
       <c r="AN3">
-        <v>62.26721439874088</v>
+        <v>58.18945326697333</v>
       </c>
       <c r="AO3">
-        <v>75.5181829442234</v>
+        <v>69.77586216754892</v>
       </c>
       <c r="AP3">
-        <v>92.36631267585074</v>
+        <v>84.46874886916666</v>
       </c>
       <c r="AQ3">
-        <v>101.2822283140725</v>
+        <v>92.30890808932526</v>
       </c>
       <c r="AR3">
-        <v>102.6470060522122</v>
+        <v>93.62332345871249</v>
       </c>
       <c r="AS3">
-        <v>103.0294322402733</v>
+        <v>94.07673884238187</v>
       </c>
       <c r="AT3">
-        <v>102.4649748438448</v>
+        <v>93.6958665306487</v>
       </c>
       <c r="AU3">
-        <v>101.0795754048255</v>
+        <v>92.58658743717091</v>
       </c>
       <c r="AV3">
-        <v>101.2257996034724</v>
+        <v>92.9070209357846</v>
       </c>
       <c r="AW3">
-        <v>100.3857518104124</v>
+        <v>92.26952717507677</v>
       </c>
       <c r="AX3">
-        <v>115.4506682067934</v>
+        <v>107.9780512965817</v>
       </c>
       <c r="AY3">
-        <v>104.6759797384711</v>
+        <v>98.69125577013276</v>
       </c>
       <c r="AZ3">
-        <v>89.86057498404493</v>
+        <v>85.90410532224415</v>
       </c>
       <c r="BA3">
-        <v>83.54231338158263</v>
+        <v>80.44772523430038</v>
       </c>
       <c r="BB3">
-        <v>81.88807152079845</v>
+        <v>78.69379983781872</v>
       </c>
       <c r="BC3">
-        <v>81.01206925093889</v>
+        <v>77.94789089936245</v>
       </c>
       <c r="BD3">
-        <v>78.22090135054235</v>
+        <v>75.55740810790844</v>
       </c>
       <c r="BE3">
-        <v>74.94702689836774</v>
+        <v>72.76272815381382</v>
       </c>
       <c r="BF3">
-        <v>73.15321433246143</v>
+        <v>71.26129545454232</v>
       </c>
       <c r="BG3">
-        <v>70.91580388389856</v>
+        <v>69.0713815629303</v>
       </c>
       <c r="BH3">
-        <v>73.17973209095749</v>
+        <v>71.11108694682295</v>
       </c>
       <c r="BI3">
-        <v>78.64191558996423</v>
+        <v>75.92673990912719</v>
       </c>
       <c r="BJ3">
-        <v>87.25705600943321</v>
+        <v>83.47690453586817</v>
       </c>
       <c r="BK3">
-        <v>98.02892223419089</v>
+        <v>92.89882800633139</v>
       </c>
       <c r="BL3">
-        <v>108.2007988064411</v>
+        <v>101.5666580528446</v>
       </c>
       <c r="BM3">
-        <v>119.1054830912793</v>
+        <v>111.1169405301621</v>
       </c>
       <c r="BN3">
-        <v>125.8228189314838</v>
+        <v>117.0529255030408</v>
       </c>
       <c r="BO3">
-        <v>128.1637489169153</v>
+        <v>119.2089195620258</v>
       </c>
       <c r="BP3">
-        <v>128.4375795782706</v>
+        <v>119.5766796520778</v>
       </c>
       <c r="BQ3">
-        <v>126.8094650226789</v>
+        <v>118.1299654775966</v>
       </c>
       <c r="BR3">
-        <v>126.1742379480359</v>
+        <v>117.7050540553435</v>
       </c>
       <c r="BS3">
-        <v>125.5254796379733</v>
+        <v>117.2602888160923</v>
       </c>
       <c r="BT3">
-        <v>124.4489173945085</v>
+        <v>116.4371164577799</v>
       </c>
       <c r="BU3">
-        <v>121.3117528593116</v>
+        <v>113.8253081359623</v>
       </c>
       <c r="BV3">
-        <v>112.9281766924498</v>
+        <v>106.511246007747</v>
       </c>
       <c r="BW3">
-        <v>104.6111532207659</v>
+        <v>99.41342271050003</v>
       </c>
       <c r="BX3">
-        <v>99.71806621947222</v>
+        <v>95.26482560343558</v>
       </c>
       <c r="BY3">
-        <v>97.97280576443482</v>
+        <v>93.82880797025388</v>
       </c>
       <c r="BZ3">
-        <v>96.68630162915477</v>
+        <v>92.78550970586851</v>
       </c>
       <c r="CA3">
-        <v>93.53402348167886</v>
+        <v>89.95938219814857</v>
       </c>
       <c r="CB3">
-        <v>91.76602695370578</v>
+        <v>88.5051003380478</v>
       </c>
       <c r="CC3">
-        <v>91.14545183601064</v>
+        <v>88.04468004434709</v>
       </c>
       <c r="CD3">
-        <v>92.41447351691897</v>
+        <v>89.22073278406332</v>
       </c>
       <c r="CE3">
-        <v>96.22439013096141</v>
+        <v>92.59684241169199</v>
       </c>
       <c r="CF3">
-        <v>101.3616534142826</v>
+        <v>96.93387741465875</v>
       </c>
       <c r="CG3">
-        <v>110.164271533803</v>
+        <v>104.6408140582574</v>
       </c>
       <c r="CH3">
-        <v>120.1268943980451</v>
+        <v>113.3561367664454</v>
       </c>
       <c r="CI3">
-        <v>129.8389138134945</v>
+        <v>121.8611632067641</v>
       </c>
       <c r="CJ3">
-        <v>137.8186104292411</v>
+        <v>128.8754089484934</v>
       </c>
       <c r="CK3">
-        <v>140.9134760312021</v>
+        <v>131.4111259556</v>
       </c>
       <c r="CL3">
-        <v>143.0397242895013</v>
+        <v>133.3833180345692</v>
       </c>
       <c r="CM3">
-        <v>143.3181045574727</v>
+        <v>133.7606203580873</v>
       </c>
       <c r="CN3">
-        <v>142.7678440572813</v>
+        <v>133.4216539010026</v>
       </c>
       <c r="CO3">
-        <v>141.8816120834334</v>
+        <v>132.7905270332318</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474398.50083487</v>
+        <v>26474389.70802449</v>
       </c>
       <c r="E4">
-        <v>26423737.66145517</v>
+        <v>26423722.00251613</v>
       </c>
       <c r="F4">
-        <v>29154531.57966095</v>
+        <v>29154501.35560047</v>
       </c>
       <c r="G4">
-        <v>29290322.71290451</v>
+        <v>29290267.69468026</v>
       </c>
       <c r="H4">
-        <v>26636462.9412566</v>
+        <v>26636381.37971847</v>
       </c>
       <c r="I4">
-        <v>26166615.59179473</v>
+        <v>26166474.9834493</v>
       </c>
       <c r="J4">
-        <v>28879959.60219118</v>
+        <v>28879718.23015982</v>
       </c>
       <c r="K4">
-        <v>32704196.13792259</v>
+        <v>32703780.91070391</v>
       </c>
       <c r="L4">
-        <v>32434107.60353281</v>
+        <v>32433465.72169748</v>
       </c>
       <c r="M4">
-        <v>34529468.09502798</v>
+        <v>34528385.80368828</v>
       </c>
       <c r="N4">
-        <v>37360582.63792852</v>
+        <v>37358653.7001034</v>
       </c>
       <c r="O4">
-        <v>34591181.41551942</v>
+        <v>34588069.93663197</v>
       </c>
       <c r="P4">
-        <v>37498293.43340129</v>
+        <v>37492487.95334477</v>
       </c>
       <c r="Q4">
-        <v>38797320.6371789</v>
+        <v>38788040.37932952</v>
       </c>
       <c r="R4">
-        <v>40097969.56220431</v>
+        <v>40086371.92890348</v>
       </c>
       <c r="S4">
-        <v>43446908.05934838</v>
+        <v>43434361.93795174</v>
       </c>
       <c r="T4">
-        <v>44883461.33064902</v>
+        <v>44869537.69077478</v>
       </c>
       <c r="U4">
-        <v>46318531.60375915</v>
+        <v>46302489.54819135</v>
       </c>
       <c r="V4">
-        <v>47752618.30406252</v>
+        <v>47734058.26964737</v>
       </c>
       <c r="W4">
-        <v>49186383.00274201</v>
+        <v>49165203.8354314</v>
       </c>
       <c r="X4">
-        <v>50349020.00623246</v>
+        <v>50325026.9113047</v>
       </c>
       <c r="Y4">
-        <v>51685150.02961664</v>
+        <v>51657871.92238692</v>
       </c>
       <c r="Z4">
-        <v>53022061.98552513</v>
+        <v>52991996.00743116</v>
       </c>
       <c r="AA4">
-        <v>54358710.09584681</v>
+        <v>54325801.95453382</v>
       </c>
       <c r="AB4">
-        <v>55692969.84263944</v>
+        <v>55656216.41947253</v>
       </c>
       <c r="AC4">
-        <v>54813162.60015179</v>
+        <v>54771811.05319539</v>
       </c>
       <c r="AD4">
-        <v>56147120.18850188</v>
+        <v>56099943.04005829</v>
       </c>
       <c r="AE4">
-        <v>57478488.50700088</v>
+        <v>57424316.11015265</v>
       </c>
       <c r="AF4">
-        <v>58810616.42774704</v>
+        <v>58749499.81499829</v>
       </c>
       <c r="AG4">
-        <v>60139218.37926865</v>
+        <v>60069616.38106124</v>
       </c>
       <c r="AH4">
-        <v>61098489.59610379</v>
+        <v>61016996.54097819</v>
       </c>
       <c r="AI4">
-        <v>62433155.22467183</v>
+        <v>62335227.4752098</v>
       </c>
       <c r="AJ4">
-        <v>63756369.72587109</v>
+        <v>63636398.65723547</v>
       </c>
       <c r="AK4">
-        <v>65065094.33458392</v>
+        <v>64915822.38272233</v>
       </c>
       <c r="AL4">
-        <v>66354186.65324154</v>
+        <v>66166066.75745174</v>
       </c>
       <c r="AM4">
-        <v>67598837.68755135</v>
+        <v>67363624.03471303</v>
       </c>
       <c r="AN4">
-        <v>68834007.07549399</v>
+        <v>68547183.14120525</v>
       </c>
       <c r="AO4">
-        <v>70053370.28549691</v>
+        <v>69706585.78414334</v>
       </c>
       <c r="AP4">
-        <v>71261284.24838516</v>
+        <v>70848232.90764974</v>
       </c>
       <c r="AQ4">
-        <v>72497486.83673109</v>
+        <v>72033538.44677499</v>
       </c>
       <c r="AR4">
-        <v>73751326.05884235</v>
+        <v>73253451.56778301</v>
       </c>
       <c r="AS4">
-        <v>75021511.10250658</v>
+        <v>74497427.81184781</v>
       </c>
       <c r="AT4">
-        <v>76311722.51961967</v>
+        <v>75770741.45148714</v>
       </c>
       <c r="AU4">
-        <v>77624309.9177904</v>
+        <v>77076712.79970917</v>
       </c>
       <c r="AV4">
-        <v>79156696.60547832</v>
+        <v>78611008.56760824</v>
       </c>
       <c r="AW4">
-        <v>80656912.7674126</v>
+        <v>80123495.01226451</v>
       </c>
       <c r="AX4">
-        <v>82241550.32009013</v>
+        <v>81735637.0635726</v>
       </c>
       <c r="AY4">
-        <v>83753368.80911735</v>
+        <v>83294198.38465804</v>
       </c>
       <c r="AZ4">
-        <v>85290511.46628252</v>
+        <v>84891066.5953791</v>
       </c>
       <c r="BA4">
-        <v>86806843.85205671</v>
+        <v>86454758.69653144</v>
       </c>
       <c r="BB4">
-        <v>88345672.98078111</v>
+        <v>88027307.2137607</v>
       </c>
       <c r="BC4">
-        <v>89923469.56324352</v>
+        <v>89637283.41710874</v>
       </c>
       <c r="BD4">
-        <v>91496137.80470853</v>
+        <v>91240085.96081653</v>
       </c>
       <c r="BE4">
-        <v>93057032.23097143</v>
+        <v>92825908.24183659</v>
       </c>
       <c r="BF4">
-        <v>94596505.2025843</v>
+        <v>94379931.17574714</v>
       </c>
       <c r="BG4">
-        <v>96146252.9974305</v>
+        <v>95932462.24897933</v>
       </c>
       <c r="BH4">
-        <v>97714701.81691156</v>
+        <v>97492831.32656284</v>
       </c>
       <c r="BI4">
-        <v>99260679.61322089</v>
+        <v>99020041.40502328</v>
       </c>
       <c r="BJ4">
-        <v>100787012.4065044</v>
+        <v>100518270.1757498</v>
       </c>
       <c r="BK4">
-        <v>102298042.6227301</v>
+        <v>101993847.4591153</v>
       </c>
       <c r="BL4">
-        <v>103818108.3031255</v>
+        <v>103473528.4734638</v>
       </c>
       <c r="BM4">
-        <v>105368881.1219208</v>
+        <v>104984126.0598121</v>
       </c>
       <c r="BN4">
-        <v>106931589.9273844</v>
+        <v>106513488.0912515</v>
       </c>
       <c r="BO4">
-        <v>108509375.6294357</v>
+        <v>108066239.5355647</v>
       </c>
       <c r="BP4">
-        <v>110097373.5935718</v>
+        <v>109634558.1501662</v>
       </c>
       <c r="BQ4">
-        <v>111780240.3415672</v>
+        <v>111301554.6265697</v>
       </c>
       <c r="BR4">
-        <v>113493018.4840892</v>
+        <v>113002282.8782521</v>
       </c>
       <c r="BS4">
-        <v>115214629.5917339</v>
+        <v>114715908.647976</v>
       </c>
       <c r="BT4">
-        <v>116947522.6694266</v>
+        <v>116446185.1061601</v>
       </c>
       <c r="BU4">
-        <v>118697419.4315172</v>
+        <v>118202011.6191765</v>
       </c>
       <c r="BV4">
-        <v>120527443.4363292</v>
+        <v>120049812.8655046</v>
       </c>
       <c r="BW4">
-        <v>122391007.2767133</v>
+        <v>121937089.1784286</v>
       </c>
       <c r="BX4">
-        <v>124250016.6302005</v>
+        <v>123816329.5261136</v>
       </c>
       <c r="BY4">
-        <v>126102498.6840007</v>
+        <v>125684543.4617525</v>
       </c>
       <c r="BZ4">
-        <v>127954575.6348591</v>
+        <v>127551477.2358824</v>
       </c>
       <c r="CA4">
-        <v>129870845.4228237</v>
+        <v>129483025.8849835</v>
       </c>
       <c r="CB4">
-        <v>131806885.0565334</v>
+        <v>131432928.1209241</v>
       </c>
       <c r="CC4">
-        <v>133735230.5944084</v>
+        <v>133371087.5409822</v>
       </c>
       <c r="CD4">
-        <v>135652260.1941467</v>
+        <v>135292115.2875193</v>
       </c>
       <c r="CE4">
-        <v>137555732.2891575</v>
+        <v>137192768.416621</v>
       </c>
       <c r="CF4">
-        <v>139510013.4687771</v>
+        <v>139137364.7698202</v>
       </c>
       <c r="CG4">
-        <v>141476918.3921121</v>
+        <v>141088570.1954996</v>
       </c>
       <c r="CH4">
-        <v>143434276.6634541</v>
+        <v>143025767.5304541</v>
       </c>
       <c r="CI4">
-        <v>145386669.8106663</v>
+        <v>144955961.9936303</v>
       </c>
       <c r="CJ4">
-        <v>147339660.6702766</v>
+        <v>146887681.4848245</v>
       </c>
       <c r="CK4">
-        <v>149348314.7612742</v>
+        <v>148878731.6040022</v>
       </c>
       <c r="CL4">
-        <v>151398633.0840057</v>
+        <v>150915827.2650363</v>
       </c>
       <c r="CM4">
-        <v>153454445.3505331</v>
+        <v>152961602.3153589</v>
       </c>
       <c r="CN4">
-        <v>155514085.5625906</v>
+        <v>155013305.0393389</v>
       </c>
       <c r="CO4">
-        <v>157577413.9396315</v>
+        <v>157070581.9839846</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694789.953015983</v>
+        <v>1694767.465953461</v>
       </c>
       <c r="E5">
-        <v>1137423.542420115</v>
+        <v>1137383.497109326</v>
       </c>
       <c r="F5">
-        <v>570100.2466418127</v>
+        <v>570022.9659821946</v>
       </c>
       <c r="G5">
-        <v>350369.1067182161</v>
+        <v>350228.5018977115</v>
       </c>
       <c r="H5">
-        <v>328404.4844852284</v>
+        <v>328196.3495949633</v>
       </c>
       <c r="I5">
-        <v>232954.8300528435</v>
+        <v>232597.3745811735</v>
       </c>
       <c r="J5">
-        <v>190598.3498694703</v>
+        <v>189990.3705748515</v>
       </c>
       <c r="K5">
-        <v>246142.4649146154</v>
+        <v>245118.472846174</v>
       </c>
       <c r="L5">
-        <v>446858.569488756</v>
+        <v>445346.2233767339</v>
       </c>
       <c r="M5">
-        <v>391002.7189003797</v>
+        <v>388674.4546697928</v>
       </c>
       <c r="N5">
-        <v>492466.3317155906</v>
+        <v>488936.5335696323</v>
       </c>
       <c r="O5">
-        <v>617673.4748793484</v>
+        <v>613199.4767898216</v>
       </c>
       <c r="P5">
-        <v>4043605.18337506</v>
+        <v>4037233.74750384</v>
       </c>
       <c r="Q5">
-        <v>4050836.90426162</v>
+        <v>4042215.033090791</v>
       </c>
       <c r="R5">
-        <v>4059732.464634378</v>
+        <v>4048332.786117645</v>
       </c>
       <c r="S5">
-        <v>12879990.26016179</v>
+        <v>12865246.53524957</v>
       </c>
       <c r="T5">
-        <v>12892534.41417419</v>
+        <v>12873863.21293782</v>
       </c>
       <c r="U5">
-        <v>12906889.51163254</v>
+        <v>12883717.36350008</v>
       </c>
       <c r="V5">
-        <v>12922936.31150335</v>
+        <v>12894727.42923886</v>
       </c>
       <c r="W5">
-        <v>12940487.24646056</v>
+        <v>12906765.18049928</v>
       </c>
       <c r="X5">
-        <v>12379312.38005099</v>
+        <v>12339667.89975887</v>
       </c>
       <c r="Y5">
-        <v>12399291.52912022</v>
+        <v>12353366.65132466</v>
       </c>
       <c r="Z5">
-        <v>12420403.5319111</v>
+        <v>12367839.25738615</v>
       </c>
       <c r="AA5">
-        <v>12442973.07279794</v>
+        <v>12383307.69747476</v>
       </c>
       <c r="AB5">
-        <v>12467837.03319544</v>
+        <v>12400344.00225485</v>
       </c>
       <c r="AC5">
-        <v>2206069.042524737</v>
+        <v>2129530.011203872</v>
       </c>
       <c r="AD5">
-        <v>2241082.483863348</v>
+        <v>2153503.527227634</v>
       </c>
       <c r="AE5">
-        <v>2285832.886313064</v>
+        <v>2184129.844991129</v>
       </c>
       <c r="AF5">
-        <v>2344701.285333525</v>
+        <v>2224401.84341712</v>
       </c>
       <c r="AG5">
-        <v>2422764.4391423</v>
+        <v>2277788.497016779</v>
       </c>
       <c r="AH5">
-        <v>578812.0797124795</v>
+        <v>401394.2440489809</v>
       </c>
       <c r="AI5">
-        <v>710860.0412809541</v>
+        <v>491667.6704368462</v>
       </c>
       <c r="AJ5">
-        <v>876233.5285781886</v>
+        <v>604711.273087489</v>
       </c>
       <c r="AK5">
-        <v>1076983.270973173</v>
+        <v>741926.5955617746</v>
       </c>
       <c r="AL5">
-        <v>1312705.658339153</v>
+        <v>903038.5027031659</v>
       </c>
       <c r="AM5">
-        <v>1580041.061444757</v>
+        <v>1085752.046576327</v>
       </c>
       <c r="AN5">
-        <v>1872359.113978336</v>
+        <v>1285535.453454901</v>
       </c>
       <c r="AO5">
-        <v>2179710.757913267</v>
+        <v>1495592.360743325</v>
       </c>
       <c r="AP5">
-        <v>2489069.538253898</v>
+        <v>1707022.283016209</v>
       </c>
       <c r="AQ5">
-        <v>2784979.699007238</v>
+        <v>1909259.698059056</v>
       </c>
       <c r="AR5">
-        <v>3050717.088270593</v>
+        <v>2090880.546361516</v>
       </c>
       <c r="AS5">
-        <v>3269799.834143071</v>
+        <v>2240623.929413068</v>
       </c>
       <c r="AT5">
-        <v>3427802.674740034</v>
+        <v>2348633.790127199</v>
       </c>
       <c r="AU5">
-        <v>3514150.609926148</v>
+        <v>2407684.815167583</v>
       </c>
       <c r="AV5">
-        <v>4836373.373603649</v>
+        <v>3726980.976891753</v>
       </c>
       <c r="AW5">
-        <v>5141104.620758565</v>
+        <v>4052904.744065633</v>
       </c>
       <c r="AX5">
-        <v>5005100.49991677</v>
+        <v>3960041.270197378</v>
       </c>
       <c r="AY5">
-        <v>4811913.050758255</v>
+        <v>3828099.685512167</v>
       </c>
       <c r="AZ5">
-        <v>4577642.977755276</v>
+        <v>3668086.132502643</v>
       </c>
       <c r="BA5">
-        <v>4320778.018580881</v>
+        <v>3492638.632624221</v>
       </c>
       <c r="BB5">
-        <v>3869879.882785521</v>
+        <v>3124205.88003347</v>
       </c>
       <c r="BC5">
-        <v>3625137.004003086</v>
+        <v>2957051.124868455</v>
       </c>
       <c r="BD5">
-        <v>3412589.984322888</v>
+        <v>2811893.775329775</v>
       </c>
       <c r="BE5">
-        <v>3245891.349350334</v>
+        <v>2698062.362394401</v>
       </c>
       <c r="BF5">
-        <v>3134451.645604594</v>
+        <v>2621987.752825332</v>
       </c>
       <c r="BG5">
-        <v>2894545.965794556</v>
+        <v>2398541.17426331</v>
       </c>
       <c r="BH5">
-        <v>2901852.945254366</v>
+        <v>2403607.100097691</v>
       </c>
       <c r="BI5">
-        <v>2963102.397850176</v>
+        <v>2445530.483658946</v>
       </c>
       <c r="BJ5">
-        <v>3069969.215097063</v>
+        <v>2518623.080160342</v>
       </c>
       <c r="BK5">
-        <v>3212343.709471199</v>
+        <v>2615977.212761289</v>
       </c>
       <c r="BL5">
-        <v>3238079.999648474</v>
+        <v>2588819.122046823</v>
       </c>
       <c r="BM5">
-        <v>3419805.380894989</v>
+        <v>2713062.383255664</v>
       </c>
       <c r="BN5">
-        <v>3606282.871354637</v>
+        <v>2840550.540843101</v>
       </c>
       <c r="BO5">
-        <v>3788570.646049004</v>
+        <v>2965173.9611997</v>
       </c>
       <c r="BP5">
-        <v>3958603.699748869</v>
+        <v>3081423.268254563</v>
       </c>
       <c r="BQ5">
-        <v>4010650.505205584</v>
+        <v>3085801.418053646</v>
       </c>
       <c r="BR5">
-        <v>4136224.500093031</v>
+        <v>3171676.915594364</v>
       </c>
       <c r="BS5">
-        <v>4232158.085927331</v>
+        <v>3237300.397538978</v>
       </c>
       <c r="BT5">
-        <v>4295505.069489553</v>
+        <v>3280658.61444763</v>
       </c>
       <c r="BU5">
-        <v>4324976.780145697</v>
+        <v>3300870.264682443</v>
       </c>
       <c r="BV5">
-        <v>4224755.798154116</v>
+        <v>3201965.879760245</v>
       </c>
       <c r="BW5">
-        <v>4189766.004278066</v>
+        <v>3178134.981366516</v>
       </c>
       <c r="BX5">
-        <v>4127865.105454053</v>
+        <v>3135918.815064249</v>
       </c>
       <c r="BY5">
-        <v>4044921.669689666</v>
+        <v>3079327.177742527</v>
       </c>
       <c r="BZ5">
-        <v>3948214.289750114</v>
+        <v>3013331.973127465</v>
       </c>
       <c r="CA5">
-        <v>3744854.372551735</v>
+        <v>2842445.610010969</v>
       </c>
       <c r="CB5">
-        <v>3645509.523198104</v>
+        <v>2774653.069089398</v>
       </c>
       <c r="CC5">
-        <v>3557062.350804687</v>
+        <v>2714307.129652603</v>
       </c>
       <c r="CD5">
-        <v>3486303.724010276</v>
+        <v>2666047.925347058</v>
       </c>
       <c r="CE5">
-        <v>3438267.738590499</v>
+        <v>2633315.121358131</v>
       </c>
       <c r="CF5">
-        <v>3301909.037718533</v>
+        <v>2504126.572316066</v>
       </c>
       <c r="CG5">
-        <v>3306070.62225531</v>
+        <v>2507065.060373282</v>
       </c>
       <c r="CH5">
-        <v>3335578.524048254</v>
+        <v>2527321.862068715</v>
       </c>
       <c r="CI5">
-        <v>3387614.483922497</v>
+        <v>2562970.833109202</v>
       </c>
       <c r="CJ5">
-        <v>3458086.213076519</v>
+        <v>2611215.240936731</v>
       </c>
       <c r="CK5">
-        <v>3386225.50753128</v>
+        <v>2512854.491846851</v>
       </c>
       <c r="CL5">
-        <v>3478283.861034719</v>
+        <v>2575850.87486098</v>
       </c>
       <c r="CM5">
-        <v>3572953.168289233</v>
+        <v>2640630.255623197</v>
       </c>
       <c r="CN5">
-        <v>3665023.985723139</v>
+        <v>2703633.730577454</v>
       </c>
       <c r="CO5">
-        <v>3749832.21232873</v>
+        <v>2761674.750176327</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0285148604052</v>
+      </c>
+      <c r="E2">
+        <v>564.6049855298572</v>
+      </c>
+      <c r="F2">
+        <v>1064.814459869187</v>
+      </c>
+      <c r="G2">
+        <v>1435.408038437362</v>
+      </c>
+      <c r="H2">
+        <v>2384.393828939605</v>
+      </c>
+      <c r="I2">
+        <v>2929.672801199488</v>
+      </c>
+      <c r="J2">
+        <v>3538.174645123319</v>
+      </c>
+      <c r="K2">
+        <v>4238.091949157813</v>
+      </c>
+      <c r="L2">
+        <v>4795.973724333606</v>
+      </c>
+      <c r="M2">
+        <v>5480.496100646617</v>
+      </c>
+      <c r="N2">
+        <v>5827.6231951063</v>
+      </c>
+      <c r="O2">
+        <v>6212.740311852088</v>
+      </c>
+      <c r="P2">
+        <v>6985.347530706521</v>
+      </c>
+      <c r="Q2">
+        <v>7765.079320486809</v>
+      </c>
+      <c r="R2">
+        <v>8552.065855348546</v>
+      </c>
+      <c r="S2">
+        <v>10525.38942407735</v>
+      </c>
+      <c r="T2">
+        <v>12502.28718254876</v>
+      </c>
+      <c r="U2">
+        <v>14484.6236582377</v>
+      </c>
+      <c r="V2">
+        <v>16474.65655428086</v>
+      </c>
+      <c r="W2">
+        <v>18472.66747808807</v>
+      </c>
+      <c r="X2">
+        <v>20306.57655004974</v>
+      </c>
+      <c r="Y2">
+        <v>22149.79629773425</v>
+      </c>
+      <c r="Z2">
+        <v>24001.27665287861</v>
+      </c>
+      <c r="AA2">
+        <v>25861.65845834851</v>
+      </c>
+      <c r="AB2">
+        <v>27737.75635502251</v>
+      </c>
+      <c r="AC2">
+        <v>28289.59643084395</v>
+      </c>
+      <c r="AD2">
+        <v>28866.10176681391</v>
+      </c>
+      <c r="AE2">
+        <v>29466.84949982289</v>
+      </c>
+      <c r="AF2">
+        <v>30071.99000369076</v>
+      </c>
+      <c r="AG2">
+        <v>30676.5605946652</v>
+      </c>
+      <c r="AH2">
+        <v>31100.56640322624</v>
+      </c>
+      <c r="AI2">
+        <v>31527.6817186257</v>
+      </c>
+      <c r="AJ2">
+        <v>31957.30074100811</v>
+      </c>
+      <c r="AK2">
+        <v>32391.96257167321</v>
+      </c>
+      <c r="AL2">
+        <v>32851.4229154008</v>
+      </c>
+      <c r="AM2">
+        <v>33355.42937155537</v>
+      </c>
+      <c r="AN2">
+        <v>33907.94718979309</v>
+      </c>
+      <c r="AO2">
+        <v>34525.29517247291</v>
+      </c>
+      <c r="AP2">
+        <v>35222.81019150597</v>
+      </c>
+      <c r="AQ2">
+        <v>35966.54440946921</v>
+      </c>
+      <c r="AR2">
+        <v>36724.10299319006</v>
+      </c>
+      <c r="AS2">
+        <v>37490.66281975304</v>
+      </c>
+      <c r="AT2">
+        <v>38261.35602491706</v>
+      </c>
+      <c r="AU2">
+        <v>39031.70767156439</v>
+      </c>
+      <c r="AV2">
+        <v>39813.60343911671</v>
+      </c>
+      <c r="AW2">
+        <v>40597.62750502164</v>
+      </c>
+      <c r="AX2">
+        <v>41581.07781024902</v>
+      </c>
+      <c r="AY2">
+        <v>42520.79443418064</v>
+      </c>
+      <c r="AZ2">
+        <v>43399.00368673902</v>
+      </c>
+      <c r="BA2">
+        <v>44251.57106423241</v>
+      </c>
+      <c r="BB2">
+        <v>45082.3563274488</v>
+      </c>
+      <c r="BC2">
+        <v>45911.36099794815</v>
+      </c>
+      <c r="BD2">
+        <v>46730.89162073205</v>
+      </c>
+      <c r="BE2">
+        <v>47539.52577881757</v>
+      </c>
+      <c r="BF2">
+        <v>48344.33249299624</v>
+      </c>
+      <c r="BG2">
+        <v>49128.37075311848</v>
+      </c>
+      <c r="BH2">
+        <v>49927.83034577646</v>
+      </c>
+      <c r="BI2">
+        <v>50757.04320163122</v>
+      </c>
+      <c r="BJ2">
+        <v>51630.0313260192</v>
+      </c>
+      <c r="BK2">
+        <v>52556.45075203674</v>
+      </c>
+      <c r="BL2">
+        <v>53522.11349082102</v>
+      </c>
+      <c r="BM2">
+        <v>54542.53459417015</v>
+      </c>
+      <c r="BN2">
+        <v>55599.95310505334</v>
+      </c>
+      <c r="BO2">
+        <v>56675.68029978936</v>
+      </c>
+      <c r="BP2">
+        <v>57760.74628907591</v>
+      </c>
+      <c r="BQ2">
+        <v>58838.62567007101</v>
+      </c>
+      <c r="BR2">
+        <v>59921.7054032766</v>
+      </c>
+      <c r="BS2">
+        <v>61009.51737597652</v>
+      </c>
+      <c r="BT2">
+        <v>62099.78686146149</v>
+      </c>
+      <c r="BU2">
+        <v>63183.26884946151</v>
+      </c>
+      <c r="BV2">
+        <v>64229.18088155248</v>
+      </c>
+      <c r="BW2">
+        <v>65245.68263264594</v>
+      </c>
+      <c r="BX2">
+        <v>66246.99165325929</v>
+      </c>
+      <c r="BY2">
+        <v>67246.2405820658</v>
+      </c>
+      <c r="BZ2">
+        <v>68245.21711970362</v>
+      </c>
+      <c r="CA2">
+        <v>69227.56372123935</v>
+      </c>
+      <c r="CB2">
+        <v>70207.940645961</v>
+      </c>
+      <c r="CC2">
+        <v>71191.39045992863</v>
+      </c>
+      <c r="CD2">
+        <v>72186.20311244384</v>
+      </c>
+      <c r="CE2">
+        <v>73203.49995601963</v>
+      </c>
+      <c r="CF2">
+        <v>74239.86405170635</v>
+      </c>
+      <c r="CG2">
+        <v>75321.07546863038</v>
+      </c>
+      <c r="CH2">
+        <v>76452.40980059693</v>
+      </c>
+      <c r="CI2">
+        <v>77633.1045001739</v>
+      </c>
+      <c r="CJ2">
+        <v>78856.03534504569</v>
+      </c>
+      <c r="CK2">
+        <v>80087.58518568268</v>
+      </c>
+      <c r="CL2">
+        <v>81337.17298611753</v>
+      </c>
+      <c r="CM2">
+        <v>82596.96482465942</v>
+      </c>
+      <c r="CN2">
+        <v>83863.39346780625</v>
+      </c>
+      <c r="CO2">
+        <v>85134.92412961871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.4907212641697</v>
+      </c>
+      <c r="E3">
+        <v>41.1927767170197</v>
+      </c>
+      <c r="F3">
+        <v>83.60503341572439</v>
+      </c>
+      <c r="G3">
+        <v>114.2549433431712</v>
+      </c>
+      <c r="H3">
+        <v>197.4971003243959</v>
+      </c>
+      <c r="I3">
+        <v>244.1370892418922</v>
+      </c>
+      <c r="J3">
+        <v>296.3223248647798</v>
+      </c>
+      <c r="K3">
+        <v>356.4687340157195</v>
+      </c>
+      <c r="L3">
+        <v>403.7607053688181</v>
+      </c>
+      <c r="M3">
+        <v>462.3500272152003</v>
+      </c>
+      <c r="N3">
+        <v>490.0649656022044</v>
+      </c>
+      <c r="O3">
+        <v>521.5951207463313</v>
+      </c>
+      <c r="P3">
+        <v>588.1798280288111</v>
+      </c>
+      <c r="Q3">
+        <v>655.5521148609917</v>
+      </c>
+      <c r="R3">
+        <v>723.7375687992175</v>
+      </c>
+      <c r="S3">
+        <v>899.2839942579321</v>
+      </c>
+      <c r="T3">
+        <v>1074.774586725138</v>
+      </c>
+      <c r="U3">
+        <v>1250.583599189588</v>
+      </c>
+      <c r="V3">
+        <v>1427.166516057302</v>
+      </c>
+      <c r="W3">
+        <v>1604.577132927223</v>
+      </c>
+      <c r="X3">
+        <v>1767.285041001685</v>
+      </c>
+      <c r="Y3">
+        <v>1931.087351844984</v>
+      </c>
+      <c r="Z3">
+        <v>2095.768725308029</v>
+      </c>
+      <c r="AA3">
+        <v>2261.456439902241</v>
+      </c>
+      <c r="AB3">
+        <v>2429.532122636679</v>
+      </c>
+      <c r="AC3">
+        <v>2479.275926071864</v>
+      </c>
+      <c r="AD3">
+        <v>2533.179054089969</v>
+      </c>
+      <c r="AE3">
+        <v>2591.130887638697</v>
+      </c>
+      <c r="AF3">
+        <v>2649.05395559757</v>
+      </c>
+      <c r="AG3">
+        <v>2705.890355669168</v>
+      </c>
+      <c r="AH3">
+        <v>2746.035644009746</v>
+      </c>
+      <c r="AI3">
+        <v>2785.686584728286</v>
+      </c>
+      <c r="AJ3">
+        <v>2824.632161874794</v>
+      </c>
+      <c r="AK3">
+        <v>2863.293856439715</v>
+      </c>
+      <c r="AL3">
+        <v>2905.598029514008</v>
+      </c>
+      <c r="AM3">
+        <v>2955.473872635357</v>
+      </c>
+      <c r="AN3">
+        <v>3013.66332590233</v>
+      </c>
+      <c r="AO3">
+        <v>3083.439188069879</v>
+      </c>
+      <c r="AP3">
+        <v>3167.907936939046</v>
+      </c>
+      <c r="AQ3">
+        <v>3260.216845028371</v>
+      </c>
+      <c r="AR3">
+        <v>3353.840168487083</v>
+      </c>
+      <c r="AS3">
+        <v>3447.916907329465</v>
+      </c>
+      <c r="AT3">
+        <v>3541.612773860114</v>
+      </c>
+      <c r="AU3">
+        <v>3634.199361297285</v>
+      </c>
+      <c r="AV3">
+        <v>3727.106382233069</v>
+      </c>
+      <c r="AW3">
+        <v>3819.375909408146</v>
+      </c>
+      <c r="AX3">
+        <v>3927.353960704728</v>
+      </c>
+      <c r="AY3">
+        <v>4026.04521647486</v>
+      </c>
+      <c r="AZ3">
+        <v>4111.949321797105</v>
+      </c>
+      <c r="BA3">
+        <v>4192.397047031405</v>
+      </c>
+      <c r="BB3">
+        <v>4271.090846869224</v>
+      </c>
+      <c r="BC3">
+        <v>4349.038737768587</v>
+      </c>
+      <c r="BD3">
+        <v>4424.596145876495</v>
+      </c>
+      <c r="BE3">
+        <v>4497.358874030308</v>
+      </c>
+      <c r="BF3">
+        <v>4568.620169484851</v>
+      </c>
+      <c r="BG3">
+        <v>4637.691551047781</v>
+      </c>
+      <c r="BH3">
+        <v>4708.802637994604</v>
+      </c>
+      <c r="BI3">
+        <v>4784.729377903731</v>
+      </c>
+      <c r="BJ3">
+        <v>4868.206282439599</v>
+      </c>
+      <c r="BK3">
+        <v>4961.10511044593</v>
+      </c>
+      <c r="BL3">
+        <v>5062.671768498775</v>
+      </c>
+      <c r="BM3">
+        <v>5173.788709028938</v>
+      </c>
+      <c r="BN3">
+        <v>5290.841634531978</v>
+      </c>
+      <c r="BO3">
+        <v>5410.050554094004</v>
+      </c>
+      <c r="BP3">
+        <v>5529.627233746081</v>
+      </c>
+      <c r="BQ3">
+        <v>5647.757199223678</v>
+      </c>
+      <c r="BR3">
+        <v>5765.462253279022</v>
+      </c>
+      <c r="BS3">
+        <v>5882.722542095114</v>
+      </c>
+      <c r="BT3">
+        <v>5999.159658552894</v>
+      </c>
+      <c r="BU3">
+        <v>6112.984966688857</v>
+      </c>
+      <c r="BV3">
+        <v>6219.496212696604</v>
+      </c>
+      <c r="BW3">
+        <v>6318.909635407103</v>
+      </c>
+      <c r="BX3">
+        <v>6414.174461010539</v>
+      </c>
+      <c r="BY3">
+        <v>6508.003268980793</v>
+      </c>
+      <c r="BZ3">
+        <v>6600.788778686661</v>
+      </c>
+      <c r="CA3">
+        <v>6690.74816088481</v>
+      </c>
+      <c r="CB3">
+        <v>6779.253261222858</v>
+      </c>
+      <c r="CC3">
+        <v>6867.297941267205</v>
+      </c>
+      <c r="CD3">
+        <v>6956.518674051268</v>
+      </c>
+      <c r="CE3">
+        <v>7049.11551646296</v>
+      </c>
+      <c r="CF3">
+        <v>7146.049393877619</v>
+      </c>
+      <c r="CG3">
+        <v>7250.690207935876</v>
+      </c>
+      <c r="CH3">
+        <v>7364.046344702321</v>
+      </c>
+      <c r="CI3">
+        <v>7485.907507909085</v>
+      </c>
+      <c r="CJ3">
+        <v>7614.782916857579</v>
+      </c>
+      <c r="CK3">
+        <v>7746.194042813179</v>
+      </c>
+      <c r="CL3">
+        <v>7879.577360847748</v>
+      </c>
+      <c r="CM3">
+        <v>8013.337981205836</v>
+      </c>
+      <c r="CN3">
+        <v>8146.759635106838</v>
+      </c>
+      <c r="CO3">
+        <v>8279.550162140069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474389.70802449</v>
+      </c>
+      <c r="E4">
+        <v>52898111.71054062</v>
+      </c>
+      <c r="F4">
+        <v>82052613.0661411</v>
+      </c>
+      <c r="G4">
+        <v>111342880.7608214</v>
+      </c>
+      <c r="H4">
+        <v>137979262.1405398</v>
+      </c>
+      <c r="I4">
+        <v>164145737.1239891</v>
+      </c>
+      <c r="J4">
+        <v>193025455.3541489</v>
+      </c>
+      <c r="K4">
+        <v>225729236.2648528</v>
+      </c>
+      <c r="L4">
+        <v>258162701.9865503</v>
+      </c>
+      <c r="M4">
+        <v>292691087.7902386</v>
+      </c>
+      <c r="N4">
+        <v>330049741.490342</v>
+      </c>
+      <c r="O4">
+        <v>364637811.4269739</v>
+      </c>
+      <c r="P4">
+        <v>402130299.3803187</v>
+      </c>
+      <c r="Q4">
+        <v>440918339.7596482</v>
+      </c>
+      <c r="R4">
+        <v>481004711.6885517</v>
+      </c>
+      <c r="S4">
+        <v>524439073.6265034</v>
+      </c>
+      <c r="T4">
+        <v>569308611.3172781</v>
+      </c>
+      <c r="U4">
+        <v>615611100.8654695</v>
+      </c>
+      <c r="V4">
+        <v>663345159.1351168</v>
+      </c>
+      <c r="W4">
+        <v>712510362.9705482</v>
+      </c>
+      <c r="X4">
+        <v>762835389.8818529</v>
+      </c>
+      <c r="Y4">
+        <v>814493261.8042397</v>
+      </c>
+      <c r="Z4">
+        <v>867485257.8116709</v>
+      </c>
+      <c r="AA4">
+        <v>921811059.7662047</v>
+      </c>
+      <c r="AB4">
+        <v>977467276.1856773</v>
+      </c>
+      <c r="AC4">
+        <v>1032239087.238873</v>
+      </c>
+      <c r="AD4">
+        <v>1088339030.278931</v>
+      </c>
+      <c r="AE4">
+        <v>1145763346.389084</v>
+      </c>
+      <c r="AF4">
+        <v>1204512846.204082</v>
+      </c>
+      <c r="AG4">
+        <v>1264582462.585143</v>
+      </c>
+      <c r="AH4">
+        <v>1325599459.126122</v>
+      </c>
+      <c r="AI4">
+        <v>1387934686.601331</v>
+      </c>
+      <c r="AJ4">
+        <v>1451571085.258567</v>
+      </c>
+      <c r="AK4">
+        <v>1516486907.641289</v>
+      </c>
+      <c r="AL4">
+        <v>1582652974.398741</v>
+      </c>
+      <c r="AM4">
+        <v>1650016598.433454</v>
+      </c>
+      <c r="AN4">
+        <v>1718563781.574659</v>
+      </c>
+      <c r="AO4">
+        <v>1788270367.358803</v>
+      </c>
+      <c r="AP4">
+        <v>1859118600.266452</v>
+      </c>
+      <c r="AQ4">
+        <v>1931152138.713227</v>
+      </c>
+      <c r="AR4">
+        <v>2004405590.28101</v>
+      </c>
+      <c r="AS4">
+        <v>2078903018.092858</v>
+      </c>
+      <c r="AT4">
+        <v>2154673759.544345</v>
+      </c>
+      <c r="AU4">
+        <v>2231750472.344055</v>
+      </c>
+      <c r="AV4">
+        <v>2310361480.911663</v>
+      </c>
+      <c r="AW4">
+        <v>2390484975.923928</v>
+      </c>
+      <c r="AX4">
+        <v>2472220612.9875</v>
+      </c>
+      <c r="AY4">
+        <v>2555514811.372158</v>
+      </c>
+      <c r="AZ4">
+        <v>2640405877.967537</v>
+      </c>
+      <c r="BA4">
+        <v>2726860636.664068</v>
+      </c>
+      <c r="BB4">
+        <v>2814887943.877829</v>
+      </c>
+      <c r="BC4">
+        <v>2904525227.294938</v>
+      </c>
+      <c r="BD4">
+        <v>2995765313.255754</v>
+      </c>
+      <c r="BE4">
+        <v>3088591221.497591</v>
+      </c>
+      <c r="BF4">
+        <v>3182971152.673337</v>
+      </c>
+      <c r="BG4">
+        <v>3278903614.922317</v>
+      </c>
+      <c r="BH4">
+        <v>3376396446.248879</v>
+      </c>
+      <c r="BI4">
+        <v>3475416487.653903</v>
+      </c>
+      <c r="BJ4">
+        <v>3575934757.829652</v>
+      </c>
+      <c r="BK4">
+        <v>3677928605.288768</v>
+      </c>
+      <c r="BL4">
+        <v>3781402133.762232</v>
+      </c>
+      <c r="BM4">
+        <v>3886386259.822044</v>
+      </c>
+      <c r="BN4">
+        <v>3992899747.913295</v>
+      </c>
+      <c r="BO4">
+        <v>4100965987.44886</v>
+      </c>
+      <c r="BP4">
+        <v>4210600545.599026</v>
+      </c>
+      <c r="BQ4">
+        <v>4321902100.225595</v>
+      </c>
+      <c r="BR4">
+        <v>4434904383.103848</v>
+      </c>
+      <c r="BS4">
+        <v>4549620291.751823</v>
+      </c>
+      <c r="BT4">
+        <v>4666066476.857984</v>
+      </c>
+      <c r="BU4">
+        <v>4784268488.47716</v>
+      </c>
+      <c r="BV4">
+        <v>4904318301.342665</v>
+      </c>
+      <c r="BW4">
+        <v>5026255390.521093</v>
+      </c>
+      <c r="BX4">
+        <v>5150071720.047207</v>
+      </c>
+      <c r="BY4">
+        <v>5275756263.50896</v>
+      </c>
+      <c r="BZ4">
+        <v>5403307740.744843</v>
+      </c>
+      <c r="CA4">
+        <v>5532790766.629826</v>
+      </c>
+      <c r="CB4">
+        <v>5664223694.75075</v>
+      </c>
+      <c r="CC4">
+        <v>5797594782.291732</v>
+      </c>
+      <c r="CD4">
+        <v>5932886897.579251</v>
+      </c>
+      <c r="CE4">
+        <v>6070079665.995872</v>
+      </c>
+      <c r="CF4">
+        <v>6209217030.765693</v>
+      </c>
+      <c r="CG4">
+        <v>6350305600.961192</v>
+      </c>
+      <c r="CH4">
+        <v>6493331368.491646</v>
+      </c>
+      <c r="CI4">
+        <v>6638287330.485276</v>
+      </c>
+      <c r="CJ4">
+        <v>6785175011.9701</v>
+      </c>
+      <c r="CK4">
+        <v>6934053743.574102</v>
+      </c>
+      <c r="CL4">
+        <v>7084969570.839139</v>
+      </c>
+      <c r="CM4">
+        <v>7237931173.154498</v>
+      </c>
+      <c r="CN4">
+        <v>7392944478.193837</v>
+      </c>
+      <c r="CO4">
+        <v>7550015060.177822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1694767.465953461</v>
+      </c>
+      <c r="E5">
+        <v>2832150.963062787</v>
+      </c>
+      <c r="F5">
+        <v>3402173.929044982</v>
+      </c>
+      <c r="G5">
+        <v>3752402.430942694</v>
+      </c>
+      <c r="H5">
+        <v>4080598.780537657</v>
+      </c>
+      <c r="I5">
+        <v>4313196.155118831</v>
+      </c>
+      <c r="J5">
+        <v>4503186.525693682</v>
+      </c>
+      <c r="K5">
+        <v>4748304.998539856</v>
+      </c>
+      <c r="L5">
+        <v>5193651.22191659</v>
+      </c>
+      <c r="M5">
+        <v>5582325.676586383</v>
+      </c>
+      <c r="N5">
+        <v>6071262.210156015</v>
+      </c>
+      <c r="O5">
+        <v>6684461.686945837</v>
+      </c>
+      <c r="P5">
+        <v>10721695.43444968</v>
+      </c>
+      <c r="Q5">
+        <v>14763910.46754047</v>
+      </c>
+      <c r="R5">
+        <v>18812243.25365811</v>
+      </c>
+      <c r="S5">
+        <v>31677489.78890768</v>
+      </c>
+      <c r="T5">
+        <v>44551353.00184551</v>
+      </c>
+      <c r="U5">
+        <v>57435070.36534558</v>
+      </c>
+      <c r="V5">
+        <v>70329797.79458444</v>
+      </c>
+      <c r="W5">
+        <v>83236562.97508371</v>
+      </c>
+      <c r="X5">
+        <v>95576230.87484258</v>
+      </c>
+      <c r="Y5">
+        <v>107929597.5261672</v>
+      </c>
+      <c r="Z5">
+        <v>120297436.7835534</v>
+      </c>
+      <c r="AA5">
+        <v>132680744.4810282</v>
+      </c>
+      <c r="AB5">
+        <v>145081088.483283</v>
+      </c>
+      <c r="AC5">
+        <v>147210618.4944869</v>
+      </c>
+      <c r="AD5">
+        <v>149364122.0217145</v>
+      </c>
+      <c r="AE5">
+        <v>151548251.8667057</v>
+      </c>
+      <c r="AF5">
+        <v>153772653.7101228</v>
+      </c>
+      <c r="AG5">
+        <v>156050442.2071396</v>
+      </c>
+      <c r="AH5">
+        <v>156451836.4511885</v>
+      </c>
+      <c r="AI5">
+        <v>156943504.1216254</v>
+      </c>
+      <c r="AJ5">
+        <v>157548215.3947129</v>
+      </c>
+      <c r="AK5">
+        <v>158290141.9902747</v>
+      </c>
+      <c r="AL5">
+        <v>159193180.4929778</v>
+      </c>
+      <c r="AM5">
+        <v>160278932.5395541</v>
+      </c>
+      <c r="AN5">
+        <v>161564467.9930091</v>
+      </c>
+      <c r="AO5">
+        <v>163060060.3537524</v>
+      </c>
+      <c r="AP5">
+        <v>164767082.6367686</v>
+      </c>
+      <c r="AQ5">
+        <v>166676342.3348276</v>
+      </c>
+      <c r="AR5">
+        <v>168767222.8811891</v>
+      </c>
+      <c r="AS5">
+        <v>171007846.8106022</v>
+      </c>
+      <c r="AT5">
+        <v>173356480.6007294</v>
+      </c>
+      <c r="AU5">
+        <v>175764165.415897</v>
+      </c>
+      <c r="AV5">
+        <v>179491146.3927887</v>
+      </c>
+      <c r="AW5">
+        <v>183544051.1368544</v>
+      </c>
+      <c r="AX5">
+        <v>187504092.4070518</v>
+      </c>
+      <c r="AY5">
+        <v>191332192.0925639</v>
+      </c>
+      <c r="AZ5">
+        <v>195000278.2250666</v>
+      </c>
+      <c r="BA5">
+        <v>198492916.8576908</v>
+      </c>
+      <c r="BB5">
+        <v>201617122.7377242</v>
+      </c>
+      <c r="BC5">
+        <v>204574173.8625927</v>
+      </c>
+      <c r="BD5">
+        <v>207386067.6379225</v>
+      </c>
+      <c r="BE5">
+        <v>210084130.0003169</v>
+      </c>
+      <c r="BF5">
+        <v>212706117.7531422</v>
+      </c>
+      <c r="BG5">
+        <v>215104658.9274055</v>
+      </c>
+      <c r="BH5">
+        <v>217508266.0275032</v>
+      </c>
+      <c r="BI5">
+        <v>219953796.5111621</v>
+      </c>
+      <c r="BJ5">
+        <v>222472419.5913225</v>
+      </c>
+      <c r="BK5">
+        <v>225088396.8040837</v>
+      </c>
+      <c r="BL5">
+        <v>227677215.9261306</v>
+      </c>
+      <c r="BM5">
+        <v>230390278.3093862</v>
+      </c>
+      <c r="BN5">
+        <v>233230828.8502293</v>
+      </c>
+      <c r="BO5">
+        <v>236196002.811429</v>
+      </c>
+      <c r="BP5">
+        <v>239277426.0796836</v>
+      </c>
+      <c r="BQ5">
+        <v>242363227.4977373</v>
+      </c>
+      <c r="BR5">
+        <v>245534904.4133316</v>
+      </c>
+      <c r="BS5">
+        <v>248772204.8108706</v>
+      </c>
+      <c r="BT5">
+        <v>252052863.4253182</v>
+      </c>
+      <c r="BU5">
+        <v>255353733.6900007</v>
+      </c>
+      <c r="BV5">
+        <v>258555699.5697609</v>
+      </c>
+      <c r="BW5">
+        <v>261733834.5511274</v>
+      </c>
+      <c r="BX5">
+        <v>264869753.3661917</v>
+      </c>
+      <c r="BY5">
+        <v>267949080.5439342</v>
+      </c>
+      <c r="BZ5">
+        <v>270962412.5170617</v>
+      </c>
+      <c r="CA5">
+        <v>273804858.1270727</v>
+      </c>
+      <c r="CB5">
+        <v>276579511.1961621</v>
+      </c>
+      <c r="CC5">
+        <v>279293818.3258147</v>
+      </c>
+      <c r="CD5">
+        <v>281959866.2511618</v>
+      </c>
+      <c r="CE5">
+        <v>284593181.3725199</v>
+      </c>
+      <c r="CF5">
+        <v>287097307.944836</v>
+      </c>
+      <c r="CG5">
+        <v>289604373.0052093</v>
+      </c>
+      <c r="CH5">
+        <v>292131694.867278</v>
+      </c>
+      <c r="CI5">
+        <v>294694665.7003872</v>
+      </c>
+      <c r="CJ5">
+        <v>297305880.9413239</v>
+      </c>
+      <c r="CK5">
+        <v>299818735.4331708</v>
+      </c>
+      <c r="CL5">
+        <v>302394586.3080318</v>
+      </c>
+      <c r="CM5">
+        <v>305035216.563655</v>
+      </c>
+      <c r="CN5">
+        <v>307738850.2942325</v>
+      </c>
+      <c r="CO5">
+        <v>310500525.0444088</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Act/RR/Results_world_act_RR_full.xlsx
+++ b/Results/Act/RR/Results_world_act_RR_full.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285148604052</v>
+        <v>1072.35328383924</v>
       </c>
       <c r="E2">
-        <v>302.5764706694521</v>
+        <v>1397.592529708293</v>
       </c>
       <c r="F2">
-        <v>500.2094743393292</v>
+        <v>1396.906452689716</v>
       </c>
       <c r="G2">
-        <v>370.5935785681758</v>
+        <v>1327.436233259179</v>
       </c>
       <c r="H2">
-        <v>948.985790502242</v>
+        <v>1780.39633934287</v>
       </c>
       <c r="I2">
-        <v>545.2789722598837</v>
+        <v>1284.426922629583</v>
       </c>
       <c r="J2">
-        <v>608.5018439238312</v>
+        <v>2324.074640432389</v>
       </c>
       <c r="K2">
-        <v>699.9173040344945</v>
+        <v>2310.426245486409</v>
       </c>
       <c r="L2">
-        <v>557.8817751757928</v>
+        <v>2055.722965813983</v>
       </c>
       <c r="M2">
-        <v>684.5223763130116</v>
+        <v>1894.529735737901</v>
       </c>
       <c r="N2">
-        <v>347.1270944596828</v>
+        <v>4052.322852266807</v>
       </c>
       <c r="O2">
-        <v>385.1171167457879</v>
+        <v>2457.102725803412</v>
       </c>
       <c r="P2">
-        <v>772.6072188544334</v>
+        <v>4921.84906184129</v>
       </c>
       <c r="Q2">
-        <v>779.7317897802878</v>
+        <v>5299.647172637171</v>
       </c>
       <c r="R2">
-        <v>786.9865348617385</v>
+        <v>5678.522498577595</v>
       </c>
       <c r="S2">
-        <v>1973.323568728806</v>
+        <v>12454.84583686656</v>
       </c>
       <c r="T2">
-        <v>1976.897758471411</v>
+        <v>13342.93223599178</v>
       </c>
       <c r="U2">
-        <v>1982.336475688938</v>
+        <v>14233.0163179436</v>
       </c>
       <c r="V2">
-        <v>1990.032896043163</v>
+        <v>15126.38864519434</v>
       </c>
       <c r="W2">
-        <v>1998.010923807207</v>
+        <v>16022.51722340032</v>
       </c>
       <c r="X2">
-        <v>1833.909071961676</v>
+        <v>16052.88174905288</v>
       </c>
       <c r="Y2">
-        <v>1843.219747684501</v>
+        <v>16874.89180297415</v>
       </c>
       <c r="Z2">
-        <v>1851.480355144363</v>
+        <v>17699.08336343741</v>
       </c>
       <c r="AA2">
-        <v>1860.381805469905</v>
+        <v>18527.81078635159</v>
       </c>
       <c r="AB2">
-        <v>1876.097896673994</v>
+        <v>19362.79549880365</v>
       </c>
       <c r="AC2">
-        <v>551.8400758214442</v>
+        <v>8719.886973463435</v>
       </c>
       <c r="AD2">
-        <v>576.5053359699635</v>
+        <v>8880.614555433589</v>
       </c>
       <c r="AE2">
-        <v>600.7477330089805</v>
+        <v>9058.103043408682</v>
       </c>
       <c r="AF2">
-        <v>605.140503867865</v>
+        <v>9239.017535854166</v>
       </c>
       <c r="AG2">
-        <v>604.5705909744461</v>
+        <v>9436.229883563154</v>
       </c>
       <c r="AH2">
-        <v>424.0058085610365</v>
+        <v>5542.529416625375</v>
       </c>
       <c r="AI2">
-        <v>427.1153153994613</v>
+        <v>5525.337983860883</v>
       </c>
       <c r="AJ2">
-        <v>429.6190223824073</v>
+        <v>5563.831859720031</v>
       </c>
       <c r="AK2">
-        <v>434.6618306651027</v>
+        <v>5664.712667292518</v>
       </c>
       <c r="AL2">
-        <v>459.4603437275881</v>
+        <v>5774.711599031335</v>
       </c>
       <c r="AM2">
-        <v>504.0064561545738</v>
+        <v>7742.814739053395</v>
       </c>
       <c r="AN2">
-        <v>552.5178182377111</v>
+        <v>8077.059834569685</v>
       </c>
       <c r="AO2">
-        <v>617.3479826798196</v>
+        <v>8511.105563472407</v>
       </c>
       <c r="AP2">
-        <v>697.5150190330617</v>
+        <v>9044.888952571595</v>
       </c>
       <c r="AQ2">
-        <v>743.7342179632411</v>
+        <v>9451.97650596092</v>
       </c>
       <c r="AR2">
-        <v>757.5585837208563</v>
+        <v>13020.33386217429</v>
       </c>
       <c r="AS2">
-        <v>766.5598265629735</v>
+        <v>13375.02755061438</v>
       </c>
       <c r="AT2">
-        <v>770.6932051640264</v>
+        <v>13683.35267374651</v>
       </c>
       <c r="AU2">
-        <v>770.3516466473237</v>
+        <v>13942.73191895627</v>
       </c>
       <c r="AV2">
-        <v>781.8957675523294</v>
+        <v>14179.21739363966</v>
       </c>
       <c r="AW2">
-        <v>784.0240659049232</v>
+        <v>15101.42819460704</v>
       </c>
       <c r="AX2">
-        <v>983.4503052273855</v>
+        <v>15144.22497527352</v>
       </c>
       <c r="AY2">
-        <v>939.7166239316239</v>
+        <v>14908.96325572435</v>
       </c>
       <c r="AZ2">
-        <v>878.2092525583736</v>
+        <v>14467.78539806656</v>
       </c>
       <c r="BA2">
-        <v>852.5673774933986</v>
+        <v>14268.22783072932</v>
       </c>
       <c r="BB2">
-        <v>830.7852632163826</v>
+        <v>13409.16516559427</v>
       </c>
       <c r="BC2">
-        <v>829.0046704993543</v>
+        <v>13410.76905165156</v>
       </c>
       <c r="BD2">
-        <v>819.530622783905</v>
+        <v>13334.38725104623</v>
       </c>
       <c r="BE2">
-        <v>808.6341580855158</v>
+        <v>13214.06567669588</v>
       </c>
       <c r="BF2">
-        <v>804.8067141786748</v>
+        <v>13226.65139495436</v>
       </c>
       <c r="BG2">
-        <v>784.0382601222415</v>
+        <v>12742.64171237756</v>
       </c>
       <c r="BH2">
-        <v>799.4595926579689</v>
+        <v>12985.6868635939</v>
       </c>
       <c r="BI2">
-        <v>829.2128558547631</v>
+        <v>13329.11314070333</v>
       </c>
       <c r="BJ2">
-        <v>872.9881243879819</v>
+        <v>13776.04948624613</v>
       </c>
       <c r="BK2">
-        <v>926.4194260175407</v>
+        <v>14267.49285259743</v>
       </c>
       <c r="BL2">
-        <v>965.6627387842748</v>
+        <v>14428.93311284074</v>
       </c>
       <c r="BM2">
-        <v>1020.421103349141</v>
+        <v>14994.2964734169</v>
       </c>
       <c r="BN2">
-        <v>1057.418510883189</v>
+        <v>15574.56963126447</v>
       </c>
       <c r="BO2">
-        <v>1075.727194736018</v>
+        <v>16128.29644728421</v>
       </c>
       <c r="BP2">
-        <v>1085.06598928655</v>
+        <v>16551.85346327868</v>
       </c>
       <c r="BQ2">
-        <v>1077.879380995093</v>
+        <v>16674.53411368464</v>
       </c>
       <c r="BR2">
-        <v>1083.079733205592</v>
+        <v>16944.5453498653</v>
       </c>
       <c r="BS2">
-        <v>1087.811972699912</v>
+        <v>17176.02751874521</v>
       </c>
       <c r="BT2">
-        <v>1090.269485484967</v>
+        <v>17322.26533767292</v>
       </c>
       <c r="BU2">
-        <v>1083.481988000026</v>
+        <v>17305.17641468994</v>
       </c>
       <c r="BV2">
-        <v>1045.912032090966</v>
+        <v>16900.11600714003</v>
       </c>
       <c r="BW2">
-        <v>1016.50175109346</v>
+        <v>16670.2429437769</v>
       </c>
       <c r="BX2">
-        <v>1001.309020613349</v>
+        <v>16516.9221149497</v>
       </c>
       <c r="BY2">
-        <v>999.2489288065125</v>
+        <v>16453.72608422418</v>
       </c>
       <c r="BZ2">
-        <v>998.9765376378174</v>
+        <v>16425.04685227686</v>
       </c>
       <c r="CA2">
-        <v>982.3466015357296</v>
+        <v>16181.43837477098</v>
       </c>
       <c r="CB2">
-        <v>980.3769247216574</v>
+        <v>16149.06910326344</v>
       </c>
       <c r="CC2">
-        <v>983.4498139676218</v>
+        <v>16181.29614280292</v>
       </c>
       <c r="CD2">
-        <v>994.8126525151993</v>
+        <v>16307.72130696118</v>
       </c>
       <c r="CE2">
-        <v>1017.296843575799</v>
+        <v>16540.95736619481</v>
       </c>
       <c r="CF2">
-        <v>1036.364095686723</v>
+        <v>16607.90163861046</v>
       </c>
       <c r="CG2">
-        <v>1081.211416924037</v>
+        <v>16994.12231416954</v>
       </c>
       <c r="CH2">
-        <v>1131.334331966544</v>
+        <v>17418.20873870306</v>
       </c>
       <c r="CI2">
-        <v>1180.694699576967</v>
+        <v>17868.37522504925</v>
       </c>
       <c r="CJ2">
-        <v>1222.930844871791</v>
+        <v>18347.37170731618</v>
       </c>
       <c r="CK2">
-        <v>1231.549840636995</v>
+        <v>18423.8710926403</v>
       </c>
       <c r="CL2">
-        <v>1249.587800434849</v>
+        <v>18844.92149288538</v>
       </c>
       <c r="CM2">
-        <v>1259.791838541893</v>
+        <v>19181.78367452226</v>
       </c>
       <c r="CN2">
-        <v>1266.428643146837</v>
+        <v>19440.24062175626</v>
       </c>
       <c r="CO2">
-        <v>1271.530661812464</v>
+        <v>19648.27583473233</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.4907212641697</v>
+        <v>70.9098659579805</v>
       </c>
       <c r="E3">
-        <v>24.70205545285</v>
+        <v>92.69577848099544</v>
       </c>
       <c r="F3">
-        <v>42.41225669870469</v>
+        <v>92.53143248062371</v>
       </c>
       <c r="G3">
-        <v>30.64990992744678</v>
+        <v>87.864465782105</v>
       </c>
       <c r="H3">
-        <v>83.24215698122475</v>
+        <v>118.3849036460488</v>
       </c>
       <c r="I3">
-        <v>46.63998891749631</v>
+        <v>85.06197317431146</v>
       </c>
       <c r="J3">
-        <v>52.18523562288762</v>
+        <v>154.7760665293307</v>
       </c>
       <c r="K3">
-        <v>60.14640915093968</v>
+        <v>153.707162301091</v>
       </c>
       <c r="L3">
-        <v>47.29197135309858</v>
+        <v>136.6456836349218</v>
       </c>
       <c r="M3">
-        <v>58.58932184638222</v>
+        <v>125.7419634600131</v>
       </c>
       <c r="N3">
-        <v>27.71493838700412</v>
+        <v>270.5783753777403</v>
       </c>
       <c r="O3">
-        <v>31.53015514412685</v>
+        <v>163.5742913323261</v>
       </c>
       <c r="P3">
-        <v>66.58470728247978</v>
+        <v>328.9906651666639</v>
       </c>
       <c r="Q3">
-        <v>67.37228683218051</v>
+        <v>354.3288695044598</v>
       </c>
       <c r="R3">
-        <v>68.18545393822579</v>
+        <v>379.7396283220043</v>
       </c>
       <c r="S3">
-        <v>175.5464254587147</v>
+        <v>834.6784102441068</v>
       </c>
       <c r="T3">
-        <v>175.4905924672057</v>
+        <v>894.28099064472</v>
       </c>
       <c r="U3">
-        <v>175.8090124644504</v>
+        <v>954.0175626476396</v>
       </c>
       <c r="V3">
-        <v>176.5829168677141</v>
+        <v>1013.974840294215</v>
       </c>
       <c r="W3">
-        <v>177.4106168699205</v>
+        <v>1074.117128157816</v>
       </c>
       <c r="X3">
-        <v>162.7079080744619</v>
+        <v>1076.109401871063</v>
       </c>
       <c r="Y3">
-        <v>163.8023108432988</v>
+        <v>1131.275081566683</v>
       </c>
       <c r="Z3">
-        <v>164.6813734630458</v>
+        <v>1186.587370466306</v>
       </c>
       <c r="AA3">
-        <v>165.687714594211</v>
+        <v>1242.204134932446</v>
       </c>
       <c r="AB3">
-        <v>168.0756827344379</v>
+        <v>1298.24099541997</v>
       </c>
       <c r="AC3">
-        <v>49.74380343518468</v>
+        <v>583.5323046182733</v>
       </c>
       <c r="AD3">
-        <v>53.90312801810553</v>
+        <v>594.2811458186</v>
       </c>
       <c r="AE3">
-        <v>57.95183354872739</v>
+        <v>606.1552130236167</v>
       </c>
       <c r="AF3">
-        <v>57.92306795887359</v>
+        <v>618.2595951373663</v>
       </c>
       <c r="AG3">
-        <v>56.83640007159852</v>
+        <v>631.4580274857185</v>
       </c>
       <c r="AH3">
-        <v>40.14528834057766</v>
+        <v>369.9392744654972</v>
       </c>
       <c r="AI3">
-        <v>39.6509407185401</v>
+        <v>368.7345426874491</v>
       </c>
       <c r="AJ3">
-        <v>38.94557714650792</v>
+        <v>371.2680800933015</v>
       </c>
       <c r="AK3">
-        <v>38.6616945649205</v>
+        <v>377.9900690982284</v>
       </c>
       <c r="AL3">
-        <v>42.30417307429357</v>
+        <v>385.3221960169554</v>
       </c>
       <c r="AM3">
-        <v>49.87584312134876</v>
+        <v>517.4269695808146</v>
       </c>
       <c r="AN3">
-        <v>58.18945326697333</v>
+        <v>539.8134434839217</v>
       </c>
       <c r="AO3">
-        <v>69.77586216754892</v>
+        <v>568.8995457882148</v>
       </c>
       <c r="AP3">
-        <v>84.46874886916666</v>
+        <v>604.6813995001746</v>
       </c>
       <c r="AQ3">
-        <v>92.30890808932526</v>
+        <v>631.9599259809257</v>
       </c>
       <c r="AR3">
-        <v>93.62332345871249</v>
+        <v>871.5356348716895</v>
       </c>
       <c r="AS3">
-        <v>94.07673884238187</v>
+        <v>895.3023526472125</v>
       </c>
       <c r="AT3">
-        <v>93.6958665306487</v>
+        <v>915.9573808379919</v>
       </c>
       <c r="AU3">
-        <v>92.58658743717091</v>
+        <v>933.327914570777</v>
       </c>
       <c r="AV3">
-        <v>92.9070209357846</v>
+        <v>949.1630230912397</v>
       </c>
       <c r="AW3">
-        <v>92.26952717507677</v>
+        <v>1011.044923965414</v>
       </c>
       <c r="AX3">
-        <v>107.9780512965817</v>
+        <v>1013.875368123931</v>
       </c>
       <c r="AY3">
-        <v>98.69125577013276</v>
+        <v>998.0380293383935</v>
       </c>
       <c r="AZ3">
-        <v>85.90410532224415</v>
+        <v>968.3757968755166</v>
       </c>
       <c r="BA3">
-        <v>80.44772523430038</v>
+        <v>954.9357799873725</v>
       </c>
       <c r="BB3">
-        <v>78.69379983781872</v>
+        <v>897.1957796502974</v>
       </c>
       <c r="BC3">
-        <v>77.94789089936245</v>
+        <v>897.255692117533</v>
       </c>
       <c r="BD3">
-        <v>75.55740810790844</v>
+        <v>892.0778482885594</v>
       </c>
       <c r="BE3">
-        <v>72.76272815381382</v>
+        <v>883.9474110649386</v>
       </c>
       <c r="BF3">
-        <v>71.26129545454232</v>
+        <v>884.7403072222418</v>
       </c>
       <c r="BG3">
-        <v>69.0713815629303</v>
+        <v>852.1753584908929</v>
       </c>
       <c r="BH3">
-        <v>71.11108694682295</v>
+        <v>868.4355651509526</v>
       </c>
       <c r="BI3">
-        <v>75.92673990912719</v>
+        <v>891.4327527918446</v>
       </c>
       <c r="BJ3">
-        <v>83.47690453586817</v>
+        <v>921.3774959109121</v>
       </c>
       <c r="BK3">
-        <v>92.89882800633139</v>
+        <v>954.3089814452022</v>
       </c>
       <c r="BL3">
-        <v>101.5666580528446</v>
+        <v>965.0721203755082</v>
       </c>
       <c r="BM3">
-        <v>111.1169405301621</v>
+        <v>1002.962816963333</v>
       </c>
       <c r="BN3">
-        <v>117.0529255030408</v>
+        <v>1041.856356377446</v>
       </c>
       <c r="BO3">
-        <v>119.2089195620258</v>
+        <v>1078.969471349461</v>
       </c>
       <c r="BP3">
-        <v>119.5766796520778</v>
+        <v>1107.343587535281</v>
       </c>
       <c r="BQ3">
-        <v>118.1299654775966</v>
+        <v>1115.507883999594</v>
       </c>
       <c r="BR3">
-        <v>117.7050540553435</v>
+        <v>1133.569022484768</v>
       </c>
       <c r="BS3">
-        <v>117.2602888160923</v>
+        <v>1149.044283016004</v>
       </c>
       <c r="BT3">
-        <v>116.4371164577799</v>
+        <v>1158.797171937584</v>
       </c>
       <c r="BU3">
-        <v>113.8253081359623</v>
+        <v>1157.584893663802</v>
       </c>
       <c r="BV3">
-        <v>106.511246007747</v>
+        <v>1130.315639614804</v>
       </c>
       <c r="BW3">
-        <v>99.41342271050003</v>
+        <v>1114.813068439222</v>
       </c>
       <c r="BX3">
-        <v>95.26482560343558</v>
+        <v>1104.449598109485</v>
       </c>
       <c r="BY3">
-        <v>93.82880797025388</v>
+        <v>1100.136480877239</v>
       </c>
       <c r="BZ3">
-        <v>92.78550970586851</v>
+        <v>1098.141320632883</v>
       </c>
       <c r="CA3">
-        <v>89.95938219814857</v>
+        <v>1081.707446030523</v>
       </c>
       <c r="CB3">
-        <v>88.5051003380478</v>
+        <v>1079.459657955472</v>
       </c>
       <c r="CC3">
-        <v>88.04468004434709</v>
+        <v>1081.549147420181</v>
       </c>
       <c r="CD3">
-        <v>89.22073278406332</v>
+        <v>1089.963464933337</v>
       </c>
       <c r="CE3">
-        <v>92.59684241169199</v>
+        <v>1105.549261635273</v>
       </c>
       <c r="CF3">
-        <v>96.93387741465875</v>
+        <v>1109.959279678915</v>
       </c>
       <c r="CG3">
-        <v>104.6408140582574</v>
+        <v>1135.8078328255</v>
       </c>
       <c r="CH3">
-        <v>113.3561367664454</v>
+        <v>1164.197864956673</v>
       </c>
       <c r="CI3">
-        <v>121.8611632067641</v>
+        <v>1194.338755207733</v>
       </c>
       <c r="CJ3">
-        <v>128.8754089484934</v>
+        <v>1226.416014730677</v>
       </c>
       <c r="CK3">
-        <v>131.4111259556</v>
+        <v>1231.459599397864</v>
       </c>
       <c r="CL3">
-        <v>133.3833180345692</v>
+        <v>1259.643421480082</v>
       </c>
       <c r="CM3">
-        <v>133.7606203580873</v>
+        <v>1282.175054680968</v>
       </c>
       <c r="CN3">
-        <v>133.4216539010026</v>
+        <v>1299.442530613874</v>
       </c>
       <c r="CO3">
-        <v>132.7905270332318</v>
+        <v>1313.324873839324</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474389.70802449</v>
+        <v>1624027.93576526</v>
       </c>
       <c r="E4">
-        <v>26423722.00251613</v>
+        <v>1458718.559420262</v>
       </c>
       <c r="F4">
-        <v>29154501.35560047</v>
+        <v>1273347.049235452</v>
       </c>
       <c r="G4">
-        <v>29290267.69468026</v>
+        <v>1476932.854944113</v>
       </c>
       <c r="H4">
-        <v>26636381.37971847</v>
+        <v>1622901.330676417</v>
       </c>
       <c r="I4">
-        <v>26166474.9834493</v>
+        <v>1542117.379241534</v>
       </c>
       <c r="J4">
-        <v>28879718.23015982</v>
+        <v>1676159.477838953</v>
       </c>
       <c r="K4">
-        <v>32703780.91070391</v>
+        <v>1536482.263966935</v>
       </c>
       <c r="L4">
-        <v>32433465.72169748</v>
+        <v>1524980.259847918</v>
       </c>
       <c r="M4">
-        <v>34528385.80368828</v>
+        <v>2032649.877385633</v>
       </c>
       <c r="N4">
-        <v>37358653.7001034</v>
+        <v>1923601.168222988</v>
       </c>
       <c r="O4">
-        <v>34588069.93663197</v>
+        <v>1897690.684329139</v>
       </c>
       <c r="P4">
-        <v>37492487.95334477</v>
+        <v>9895531.625582866</v>
       </c>
       <c r="Q4">
-        <v>38788040.37932952</v>
+        <v>9923550.311977038</v>
       </c>
       <c r="R4">
-        <v>40086371.92890348</v>
+        <v>9947791.391630221</v>
       </c>
       <c r="S4">
-        <v>43434361.93795174</v>
+        <v>31193939.61362792</v>
       </c>
       <c r="T4">
-        <v>44869537.69077478</v>
+        <v>31241870.94622108</v>
       </c>
       <c r="U4">
-        <v>46302489.54819135</v>
+        <v>31292569.48695532</v>
       </c>
       <c r="V4">
-        <v>47734058.26964737</v>
+        <v>31345394.9428874</v>
       </c>
       <c r="W4">
-        <v>49165203.8354314</v>
+        <v>31399681.46447978</v>
       </c>
       <c r="X4">
-        <v>50325026.9113047</v>
+        <v>32300156.48556364</v>
       </c>
       <c r="Y4">
-        <v>51657871.92238692</v>
+        <v>32353136.11821263</v>
       </c>
       <c r="Z4">
-        <v>52991996.00743116</v>
+        <v>32402519.8840824</v>
       </c>
       <c r="AA4">
-        <v>54325801.95453382</v>
+        <v>32451155.5894706</v>
       </c>
       <c r="AB4">
-        <v>55656216.41947253</v>
+        <v>32498549.46914316</v>
       </c>
       <c r="AC4">
-        <v>54771811.05319539</v>
+        <v>8459798.521558816</v>
       </c>
       <c r="AD4">
-        <v>56099943.04005829</v>
+        <v>8482683.959671874</v>
       </c>
       <c r="AE4">
-        <v>57424316.11015265</v>
+        <v>8503942.676715774</v>
       </c>
       <c r="AF4">
-        <v>58749499.81499829</v>
+        <v>8508959.149301967</v>
       </c>
       <c r="AG4">
-        <v>60069616.38106124</v>
+        <v>8513707.346307375</v>
       </c>
       <c r="AH4">
-        <v>61016996.54097819</v>
+        <v>935637.0829775836</v>
       </c>
       <c r="AI4">
-        <v>62335227.4752098</v>
+        <v>750651.1568446036</v>
       </c>
       <c r="AJ4">
-        <v>63636398.65723547</v>
+        <v>627022.2778826961</v>
       </c>
       <c r="AK4">
-        <v>64915822.38272233</v>
+        <v>592073.4151234707</v>
       </c>
       <c r="AL4">
-        <v>66166066.75745174</v>
+        <v>550365.9842130912</v>
       </c>
       <c r="AM4">
-        <v>67363624.03471303</v>
+        <v>3953603.532582093</v>
       </c>
       <c r="AN4">
-        <v>68547183.14120525</v>
+        <v>4091529.843620972</v>
       </c>
       <c r="AO4">
-        <v>69706585.78414334</v>
+        <v>4272568.823891945</v>
       </c>
       <c r="AP4">
-        <v>70848232.90764974</v>
+        <v>4501689.471735015</v>
       </c>
       <c r="AQ4">
-        <v>72033538.44677499</v>
+        <v>4624780.139081071</v>
       </c>
       <c r="AR4">
-        <v>73253451.56778301</v>
+        <v>9663916.376694163</v>
       </c>
       <c r="AS4">
-        <v>74497427.81184781</v>
+        <v>9671570.376037097</v>
       </c>
       <c r="AT4">
-        <v>75770741.45148714</v>
+        <v>9663233.316925673</v>
       </c>
       <c r="AU4">
-        <v>77076712.79970917</v>
+        <v>9640250.674297823</v>
       </c>
       <c r="AV4">
-        <v>78611008.56760824</v>
+        <v>9618595.173968503</v>
       </c>
       <c r="AW4">
-        <v>80123495.01226451</v>
+        <v>10923386.14502317</v>
       </c>
       <c r="AX4">
-        <v>81735637.0635726</v>
+        <v>10830180.12902808</v>
       </c>
       <c r="AY4">
-        <v>83294198.38465804</v>
+        <v>10634492.90469945</v>
       </c>
       <c r="AZ4">
-        <v>84891066.5953791</v>
+        <v>10373585.54740543</v>
       </c>
       <c r="BA4">
-        <v>86454758.69653144</v>
+        <v>10235229.60407267</v>
       </c>
       <c r="BB4">
-        <v>88027307.2137607</v>
+        <v>9265290.889124863</v>
       </c>
       <c r="BC4">
-        <v>89637283.41710874</v>
+        <v>9234784.813968314</v>
       </c>
       <c r="BD4">
-        <v>91240085.96081653</v>
+        <v>9217677.100990308</v>
       </c>
       <c r="BE4">
-        <v>92825908.24183659</v>
+        <v>9254465.584117027</v>
       </c>
       <c r="BF4">
-        <v>94379931.17574714</v>
+        <v>9255537.1371722</v>
       </c>
       <c r="BG4">
-        <v>95932462.24897933</v>
+        <v>8696235.940784985</v>
       </c>
       <c r="BH4">
-        <v>97492831.32656284</v>
+        <v>8676382.413652083</v>
       </c>
       <c r="BI4">
-        <v>99020041.40502328</v>
+        <v>8770006.825615574</v>
       </c>
       <c r="BJ4">
-        <v>100518270.1757498</v>
+        <v>8922017.084346805</v>
       </c>
       <c r="BK4">
-        <v>101993847.4591153</v>
+        <v>9090451.521707457</v>
       </c>
       <c r="BL4">
-        <v>103473528.4734638</v>
+        <v>9137927.851553092</v>
       </c>
       <c r="BM4">
-        <v>104984126.0598121</v>
+        <v>9306522.076773528</v>
       </c>
       <c r="BN4">
-        <v>106513488.0912515</v>
+        <v>9440195.726493256</v>
       </c>
       <c r="BO4">
-        <v>108066239.5355647</v>
+        <v>9527285.654831186</v>
       </c>
       <c r="BP4">
-        <v>109634558.1501662</v>
+        <v>9556016.957614169</v>
       </c>
       <c r="BQ4">
-        <v>111301554.6265697</v>
+        <v>9526809.296422744</v>
       </c>
       <c r="BR4">
-        <v>113002282.8782521</v>
+        <v>9503978.593096308</v>
       </c>
       <c r="BS4">
-        <v>114715908.647976</v>
+        <v>9468852.600492764</v>
       </c>
       <c r="BT4">
-        <v>116446185.1061601</v>
+        <v>9404541.526531845</v>
       </c>
       <c r="BU4">
-        <v>118202011.6191765</v>
+        <v>9285874.27684281</v>
       </c>
       <c r="BV4">
-        <v>120049812.8655046</v>
+        <v>8976045.747503283</v>
       </c>
       <c r="BW4">
-        <v>121937089.1784286</v>
+        <v>8808847.694052938</v>
       </c>
       <c r="BX4">
-        <v>123816329.5261136</v>
+        <v>8763296.8081322</v>
       </c>
       <c r="BY4">
-        <v>125684543.4617525</v>
+        <v>8826996.112873619</v>
       </c>
       <c r="BZ4">
-        <v>127551477.2358824</v>
+        <v>8846671.492327521</v>
       </c>
       <c r="CA4">
-        <v>129483025.8849835</v>
+        <v>8636726.844849814</v>
       </c>
       <c r="CB4">
-        <v>131432928.1209241</v>
+        <v>8622200.00101589</v>
       </c>
       <c r="CC4">
-        <v>133371087.5409822</v>
+        <v>8596909.713425865</v>
       </c>
       <c r="CD4">
-        <v>135292115.2875193</v>
+        <v>8554520.620007249</v>
       </c>
       <c r="CE4">
-        <v>137192768.416621</v>
+        <v>8469851.905360023</v>
       </c>
       <c r="CF4">
-        <v>139137364.7698202</v>
+        <v>8159532.222502267</v>
       </c>
       <c r="CG4">
-        <v>141088570.1954996</v>
+        <v>8295826.328490128</v>
       </c>
       <c r="CH4">
-        <v>143025767.5304541</v>
+        <v>8444129.519927241</v>
       </c>
       <c r="CI4">
-        <v>144955961.9936303</v>
+        <v>8588614.27191354</v>
       </c>
       <c r="CJ4">
-        <v>146887681.4848245</v>
+        <v>8716960.928526133</v>
       </c>
       <c r="CK4">
-        <v>148878731.6040022</v>
+        <v>8246455.158860826</v>
       </c>
       <c r="CL4">
-        <v>150915827.2650363</v>
+        <v>8300913.984972609</v>
       </c>
       <c r="CM4">
-        <v>152961602.3153589</v>
+        <v>8314172.504887229</v>
       </c>
       <c r="CN4">
-        <v>155013305.0393389</v>
+        <v>8296845.345461433</v>
       </c>
       <c r="CO4">
-        <v>157070581.9839846</v>
+        <v>8259730.378931391</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694767.465953461</v>
+        <v>2149411.454479808</v>
       </c>
       <c r="E5">
-        <v>1137383.497109326</v>
+        <v>1439126.815670157</v>
       </c>
       <c r="F5">
-        <v>570022.9659821946</v>
+        <v>1344816.500834613</v>
       </c>
       <c r="G5">
-        <v>350228.5018977115</v>
+        <v>1295518.096358012</v>
       </c>
       <c r="H5">
-        <v>328196.3495949633</v>
+        <v>1242427.576230684</v>
       </c>
       <c r="I5">
-        <v>232597.3745811735</v>
+        <v>1551434.506349096</v>
       </c>
       <c r="J5">
-        <v>189990.3705748515</v>
+        <v>1704867.869681949</v>
       </c>
       <c r="K5">
-        <v>245118.472846174</v>
+        <v>1478696.989946415</v>
       </c>
       <c r="L5">
-        <v>445346.2233767339</v>
+        <v>1362752.059232702</v>
       </c>
       <c r="M5">
-        <v>388674.4546697928</v>
+        <v>1518469.138168545</v>
       </c>
       <c r="N5">
-        <v>488936.5335696323</v>
+        <v>1585231.062214384</v>
       </c>
       <c r="O5">
-        <v>613199.4767898216</v>
+        <v>2065205.973479656</v>
       </c>
       <c r="P5">
-        <v>4037233.74750384</v>
+        <v>16239862.23869844</v>
       </c>
       <c r="Q5">
-        <v>4042215.033090791</v>
+        <v>16239900.33689802</v>
       </c>
       <c r="R5">
-        <v>4048332.786117645</v>
+        <v>16239537.30571198</v>
       </c>
       <c r="S5">
-        <v>12865246.53524957</v>
+        <v>54040569.77136882</v>
       </c>
       <c r="T5">
-        <v>12873863.21293782</v>
+        <v>54038669.78135242</v>
       </c>
       <c r="U5">
-        <v>12883717.36350008</v>
+        <v>54035323.83401806</v>
       </c>
       <c r="V5">
-        <v>12894727.42923886</v>
+        <v>54029817.19484615</v>
       </c>
       <c r="W5">
-        <v>12906765.18049928</v>
+        <v>54021103.14305948</v>
       </c>
       <c r="X5">
-        <v>12339667.89975887</v>
+        <v>56805465.13600306</v>
       </c>
       <c r="Y5">
-        <v>12353366.65132466</v>
+        <v>56785325.08016541</v>
       </c>
       <c r="Z5">
-        <v>12367839.25738615</v>
+        <v>56755734.78922656</v>
       </c>
       <c r="AA5">
-        <v>12383307.69747476</v>
+        <v>56713232.52866215</v>
       </c>
       <c r="AB5">
-        <v>12400344.00225485</v>
+        <v>56653508.37227987</v>
       </c>
       <c r="AC5">
-        <v>2129530.011203872</v>
+        <v>14853639.86905495</v>
       </c>
       <c r="AD5">
-        <v>2153503.527227634</v>
+        <v>14742779.04789475</v>
       </c>
       <c r="AE5">
-        <v>2184129.844991129</v>
+        <v>14595980.45135371</v>
       </c>
       <c r="AF5">
-        <v>2224401.84341712</v>
+        <v>14405033.08116285</v>
       </c>
       <c r="AG5">
-        <v>2277788.497016779</v>
+        <v>14160962.03725568</v>
       </c>
       <c r="AH5">
-        <v>401394.2440489809</v>
+        <v>-121858.5475212971</v>
       </c>
       <c r="AI5">
-        <v>491667.6704368462</v>
+        <v>-696189.7281826577</v>
       </c>
       <c r="AJ5">
-        <v>604711.273087489</v>
+        <v>-1390823.067595591</v>
       </c>
       <c r="AK5">
-        <v>741926.5955617746</v>
+        <v>-1953801.393146068</v>
       </c>
       <c r="AL5">
-        <v>903038.5027031659</v>
+        <v>-2582913.117832777</v>
       </c>
       <c r="AM5">
-        <v>1085752.046576327</v>
+        <v>2610968.064115327</v>
       </c>
       <c r="AN5">
-        <v>1285535.453454901</v>
+        <v>1830765.937464212</v>
       </c>
       <c r="AO5">
-        <v>1495592.360743325</v>
+        <v>1001958.473222648</v>
       </c>
       <c r="AP5">
-        <v>1707022.283016209</v>
+        <v>154134.4306887955</v>
       </c>
       <c r="AQ5">
-        <v>1909259.698059056</v>
+        <v>-675594.2920928635</v>
       </c>
       <c r="AR5">
-        <v>2090880.546361516</v>
+        <v>6758019.475254736</v>
       </c>
       <c r="AS5">
-        <v>2240623.929413068</v>
+        <v>6091900.678894343</v>
       </c>
       <c r="AT5">
-        <v>2348633.790127199</v>
+        <v>5568567.482027463</v>
       </c>
       <c r="AU5">
-        <v>2407684.815167583</v>
+        <v>5218912.027781368</v>
       </c>
       <c r="AV5">
-        <v>3726980.976891753</v>
+        <v>5061344.671185963</v>
       </c>
       <c r="AW5">
-        <v>4052904.744065633</v>
+        <v>7498480.163650855</v>
       </c>
       <c r="AX5">
-        <v>3960041.270197378</v>
+        <v>7720327.646233656</v>
       </c>
       <c r="AY5">
-        <v>3828099.685512167</v>
+        <v>8100173.006509207</v>
       </c>
       <c r="AZ5">
-        <v>3668086.132502643</v>
+        <v>8601062.423558202</v>
       </c>
       <c r="BA5">
-        <v>3492638.632624221</v>
+        <v>9178239.274489772</v>
       </c>
       <c r="BB5">
-        <v>3124205.88003347</v>
+        <v>8385695.220120756</v>
       </c>
       <c r="BC5">
-        <v>2957051.124868455</v>
+        <v>8966806.368668426</v>
       </c>
       <c r="BD5">
-        <v>2811893.775329775</v>
+        <v>9476984.118385877</v>
       </c>
       <c r="BE5">
-        <v>2698062.362394401</v>
+        <v>9874567.926736949</v>
       </c>
       <c r="BF5">
-        <v>2621987.752825332</v>
+        <v>10127432.00487082</v>
       </c>
       <c r="BG5">
-        <v>2398541.17426331</v>
+        <v>9444624.156754646</v>
       </c>
       <c r="BH5">
-        <v>2403607.100097691</v>
+        <v>9361607.768408902</v>
       </c>
       <c r="BI5">
-        <v>2445530.483658946</v>
+        <v>9113335.926705681</v>
       </c>
       <c r="BJ5">
-        <v>2518623.080160342</v>
+        <v>8716167.95636439</v>
       </c>
       <c r="BK5">
-        <v>2615977.212761289</v>
+        <v>8193938.275067213</v>
       </c>
       <c r="BL5">
-        <v>2588819.122046823</v>
+        <v>7469957.445401448</v>
       </c>
       <c r="BM5">
-        <v>2713062.383255664</v>
+        <v>6786486.254760417</v>
       </c>
       <c r="BN5">
-        <v>2840550.540843101</v>
+        <v>6071001.690143782</v>
       </c>
       <c r="BO5">
-        <v>2965173.9611997</v>
+        <v>5356411.446100469</v>
       </c>
       <c r="BP5">
-        <v>3081423.268254563</v>
+        <v>4674162.020102153</v>
       </c>
       <c r="BQ5">
-        <v>3085801.418053646</v>
+        <v>4076770.413704987</v>
       </c>
       <c r="BR5">
-        <v>3171676.915594364</v>
+        <v>3539576.413870736</v>
       </c>
       <c r="BS5">
-        <v>3237300.397538978</v>
+        <v>3104451.890091999</v>
       </c>
       <c r="BT5">
-        <v>3280658.61444763</v>
+        <v>2782300.137923094</v>
       </c>
       <c r="BU5">
-        <v>3300870.264682443</v>
+        <v>2576692.552892374</v>
       </c>
       <c r="BV5">
-        <v>3201965.879760245</v>
+        <v>2264191.69134133</v>
       </c>
       <c r="BW5">
-        <v>3178134.981366516</v>
+        <v>2272961.638264898</v>
       </c>
       <c r="BX5">
-        <v>3135918.815064249</v>
+        <v>2366198.882158829</v>
       </c>
       <c r="BY5">
-        <v>3079327.177742527</v>
+        <v>2521863.001049809</v>
       </c>
       <c r="BZ5">
-        <v>3013331.973127465</v>
+        <v>2714875.117466575</v>
       </c>
       <c r="CA5">
-        <v>2842445.610010969</v>
+        <v>2528190.663745759</v>
       </c>
       <c r="CB5">
-        <v>2774653.069089398</v>
+        <v>2718251.368406578</v>
       </c>
       <c r="CC5">
-        <v>2714307.129652603</v>
+        <v>2871099.083594207</v>
       </c>
       <c r="CD5">
-        <v>2666047.925347058</v>
+        <v>2967448.502600338</v>
       </c>
       <c r="CE5">
-        <v>2633315.121358131</v>
+        <v>2992832.536243835</v>
       </c>
       <c r="CF5">
-        <v>2504126.572316066</v>
+        <v>2267871.38291928</v>
       </c>
       <c r="CG5">
-        <v>2507065.060373282</v>
+        <v>2130451.000647065</v>
       </c>
       <c r="CH5">
-        <v>2527321.862068715</v>
+        <v>1912612.6017856</v>
       </c>
       <c r="CI5">
-        <v>2562970.833109202</v>
+        <v>1621983.965690904</v>
       </c>
       <c r="CJ5">
-        <v>2611215.240936731</v>
+        <v>1270364.640030195</v>
       </c>
       <c r="CK5">
-        <v>2512854.491846851</v>
+        <v>-179704.7243214844</v>
       </c>
       <c r="CL5">
-        <v>2575850.87486098</v>
+        <v>-606670.9931011478</v>
       </c>
       <c r="CM5">
-        <v>2640630.255623197</v>
+        <v>-1045351.323662265</v>
       </c>
       <c r="CN5">
-        <v>2703633.730577454</v>
+        <v>-1478533.514894611</v>
       </c>
       <c r="CO5">
-        <v>2761674.750176327</v>
+        <v>-1890392.94563559</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285148604052</v>
+        <v>1072.35328383924</v>
       </c>
       <c r="E2">
-        <v>564.6049855298572</v>
+        <v>2469.945813547532</v>
       </c>
       <c r="F2">
-        <v>1064.814459869187</v>
+        <v>3866.852266237248</v>
       </c>
       <c r="G2">
-        <v>1435.408038437362</v>
+        <v>5194.288499496428</v>
       </c>
       <c r="H2">
-        <v>2384.393828939605</v>
+        <v>6974.684838839298</v>
       </c>
       <c r="I2">
-        <v>2929.672801199488</v>
+        <v>8259.111761468881</v>
       </c>
       <c r="J2">
-        <v>3538.174645123319</v>
+        <v>10583.18640190127</v>
       </c>
       <c r="K2">
-        <v>4238.091949157813</v>
+        <v>12893.61264738768</v>
       </c>
       <c r="L2">
-        <v>4795.973724333606</v>
+        <v>14949.33561320166</v>
       </c>
       <c r="M2">
-        <v>5480.496100646617</v>
+        <v>16843.86534893957</v>
       </c>
       <c r="N2">
-        <v>5827.6231951063</v>
+        <v>20896.18820120637</v>
       </c>
       <c r="O2">
-        <v>6212.740311852088</v>
+        <v>23353.29092700978</v>
       </c>
       <c r="P2">
-        <v>6985.347530706521</v>
+        <v>28275.13998885108</v>
       </c>
       <c r="Q2">
-        <v>7765.079320486809</v>
+        <v>33574.78716148825</v>
       </c>
       <c r="R2">
-        <v>8552.065855348546</v>
+        <v>39253.30966006584</v>
       </c>
       <c r="S2">
-        <v>10525.38942407735</v>
+        <v>51708.15549693239</v>
       </c>
       <c r="T2">
-        <v>12502.28718254876</v>
+        <v>65051.08773292416</v>
       </c>
       <c r="U2">
-        <v>14484.6236582377</v>
+        <v>79284.10405086777</v>
       </c>
       <c r="V2">
-        <v>16474.65655428086</v>
+        <v>94410.49269606211</v>
       </c>
       <c r="W2">
-        <v>18472.66747808807</v>
+        <v>110433.0099194624</v>
       </c>
       <c r="X2">
-        <v>20306.57655004974</v>
+        <v>126485.8916685153</v>
       </c>
       <c r="Y2">
-        <v>22149.79629773425</v>
+        <v>143360.7834714895</v>
       </c>
       <c r="Z2">
-        <v>24001.27665287861</v>
+        <v>161059.8668349269</v>
       </c>
       <c r="AA2">
-        <v>25861.65845834851</v>
+        <v>179587.6776212785</v>
       </c>
       <c r="AB2">
-        <v>27737.75635502251</v>
+        <v>198950.4731200821</v>
       </c>
       <c r="AC2">
-        <v>28289.59643084395</v>
+        <v>207670.3600935455</v>
       </c>
       <c r="AD2">
-        <v>28866.10176681391</v>
+        <v>216550.9746489791</v>
       </c>
       <c r="AE2">
-        <v>29466.84949982289</v>
+        <v>225609.0776923878</v>
       </c>
       <c r="AF2">
-        <v>30071.99000369076</v>
+        <v>234848.095228242</v>
       </c>
       <c r="AG2">
-        <v>30676.5605946652</v>
+        <v>244284.3251118051</v>
       </c>
       <c r="AH2">
-        <v>31100.56640322624</v>
+        <v>249826.8545284305</v>
       </c>
       <c r="AI2">
-        <v>31527.6817186257</v>
+        <v>255352.1925122914</v>
       </c>
       <c r="AJ2">
-        <v>31957.30074100811</v>
+        <v>260916.0243720115</v>
       </c>
       <c r="AK2">
-        <v>32391.96257167321</v>
+        <v>266580.737039304</v>
       </c>
       <c r="AL2">
-        <v>32851.4229154008</v>
+        <v>272355.4486383353</v>
       </c>
       <c r="AM2">
-        <v>33355.42937155537</v>
+        <v>280098.2633773887</v>
       </c>
       <c r="AN2">
-        <v>33907.94718979309</v>
+        <v>288175.3232119584</v>
       </c>
       <c r="AO2">
-        <v>34525.29517247291</v>
+        <v>296686.4287754308</v>
       </c>
       <c r="AP2">
-        <v>35222.81019150597</v>
+        <v>305731.3177280024</v>
       </c>
       <c r="AQ2">
-        <v>35966.54440946921</v>
+        <v>315183.2942339634</v>
       </c>
       <c r="AR2">
-        <v>36724.10299319006</v>
+        <v>328203.6280961377</v>
       </c>
       <c r="AS2">
-        <v>37490.66281975304</v>
+        <v>341578.655646752</v>
       </c>
       <c r="AT2">
-        <v>38261.35602491706</v>
+        <v>355262.0083204986</v>
       </c>
       <c r="AU2">
-        <v>39031.70767156439</v>
+        <v>369204.7402394548</v>
       </c>
       <c r="AV2">
-        <v>39813.60343911671</v>
+        <v>383383.9576330945</v>
       </c>
       <c r="AW2">
-        <v>40597.62750502164</v>
+        <v>398485.3858277015</v>
       </c>
       <c r="AX2">
-        <v>41581.07781024902</v>
+        <v>413629.6108029751</v>
       </c>
       <c r="AY2">
-        <v>42520.79443418064</v>
+        <v>428538.5740586994</v>
       </c>
       <c r="AZ2">
-        <v>43399.00368673902</v>
+        <v>443006.359456766</v>
       </c>
       <c r="BA2">
-        <v>44251.57106423241</v>
+        <v>457274.5872874953</v>
       </c>
       <c r="BB2">
-        <v>45082.3563274488</v>
+        <v>470683.7524530896</v>
       </c>
       <c r="BC2">
-        <v>45911.36099794815</v>
+        <v>484094.5215047412</v>
       </c>
       <c r="BD2">
-        <v>46730.89162073205</v>
+        <v>497428.9087557874</v>
       </c>
       <c r="BE2">
-        <v>47539.52577881757</v>
+        <v>510642.9744324833</v>
       </c>
       <c r="BF2">
-        <v>48344.33249299624</v>
+        <v>523869.6258274377</v>
       </c>
       <c r="BG2">
-        <v>49128.37075311848</v>
+        <v>536612.2675398153</v>
       </c>
       <c r="BH2">
-        <v>49927.83034577646</v>
+        <v>549597.9544034092</v>
       </c>
       <c r="BI2">
-        <v>50757.04320163122</v>
+        <v>562927.0675441124</v>
       </c>
       <c r="BJ2">
-        <v>51630.0313260192</v>
+        <v>576703.1170303585</v>
       </c>
       <c r="BK2">
-        <v>52556.45075203674</v>
+        <v>590970.6098829559</v>
       </c>
       <c r="BL2">
-        <v>53522.11349082102</v>
+        <v>605399.5429957967</v>
       </c>
       <c r="BM2">
-        <v>54542.53459417015</v>
+        <v>620393.8394692135</v>
       </c>
       <c r="BN2">
-        <v>55599.95310505334</v>
+        <v>635968.4091004779</v>
       </c>
       <c r="BO2">
-        <v>56675.68029978936</v>
+        <v>652096.7055477621</v>
       </c>
       <c r="BP2">
-        <v>57760.74628907591</v>
+        <v>668648.5590110408</v>
       </c>
       <c r="BQ2">
-        <v>58838.62567007101</v>
+        <v>685323.0931247255</v>
       </c>
       <c r="BR2">
-        <v>59921.7054032766</v>
+        <v>702267.6384745908</v>
       </c>
       <c r="BS2">
-        <v>61009.51737597652</v>
+        <v>719443.665993336</v>
       </c>
       <c r="BT2">
-        <v>62099.78686146149</v>
+        <v>736765.9313310089</v>
       </c>
       <c r="BU2">
-        <v>63183.26884946151</v>
+        <v>754071.1077456989</v>
       </c>
       <c r="BV2">
-        <v>64229.18088155248</v>
+        <v>770971.2237528389</v>
       </c>
       <c r="BW2">
-        <v>65245.68263264594</v>
+        <v>787641.4666966158</v>
       </c>
       <c r="BX2">
-        <v>66246.99165325929</v>
+        <v>804158.3888115655</v>
       </c>
       <c r="BY2">
-        <v>67246.2405820658</v>
+        <v>820612.1148957897</v>
       </c>
       <c r="BZ2">
-        <v>68245.21711970362</v>
+        <v>837037.1617480665</v>
       </c>
       <c r="CA2">
-        <v>69227.56372123935</v>
+        <v>853218.6001228376</v>
       </c>
       <c r="CB2">
-        <v>70207.940645961</v>
+        <v>869367.669226101</v>
       </c>
       <c r="CC2">
-        <v>71191.39045992863</v>
+        <v>885548.9653689039</v>
       </c>
       <c r="CD2">
-        <v>72186.20311244384</v>
+        <v>901856.6866758651</v>
       </c>
       <c r="CE2">
-        <v>73203.49995601963</v>
+        <v>918397.6440420599</v>
       </c>
       <c r="CF2">
-        <v>74239.86405170635</v>
+        <v>935005.5456806703</v>
       </c>
       <c r="CG2">
-        <v>75321.07546863038</v>
+        <v>951999.6679948398</v>
       </c>
       <c r="CH2">
-        <v>76452.40980059693</v>
+        <v>969417.8767335429</v>
       </c>
       <c r="CI2">
-        <v>77633.1045001739</v>
+        <v>987286.2519585921</v>
       </c>
       <c r="CJ2">
-        <v>78856.03534504569</v>
+        <v>1005633.623665908</v>
       </c>
       <c r="CK2">
-        <v>80087.58518568268</v>
+        <v>1024057.494758549</v>
       </c>
       <c r="CL2">
-        <v>81337.17298611753</v>
+        <v>1042902.416251434</v>
       </c>
       <c r="CM2">
-        <v>82596.96482465942</v>
+        <v>1062084.199925956</v>
       </c>
       <c r="CN2">
-        <v>83863.39346780625</v>
+        <v>1081524.440547712</v>
       </c>
       <c r="CO2">
-        <v>85134.92412961871</v>
+        <v>1101172.716382445</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.4907212641697</v>
+        <v>70.9098659579805</v>
       </c>
       <c r="E3">
-        <v>41.1927767170197</v>
+        <v>163.605644438976</v>
       </c>
       <c r="F3">
-        <v>83.60503341572439</v>
+        <v>256.1370769195997</v>
       </c>
       <c r="G3">
-        <v>114.2549433431712</v>
+        <v>344.0015427017047</v>
       </c>
       <c r="H3">
-        <v>197.4971003243959</v>
+        <v>462.3864463477535</v>
       </c>
       <c r="I3">
-        <v>244.1370892418922</v>
+        <v>547.448419522065</v>
       </c>
       <c r="J3">
-        <v>296.3223248647798</v>
+        <v>702.2244860513957</v>
       </c>
       <c r="K3">
-        <v>356.4687340157195</v>
+        <v>855.9316483524867</v>
       </c>
       <c r="L3">
-        <v>403.7607053688181</v>
+        <v>992.5773319874086</v>
       </c>
       <c r="M3">
-        <v>462.3500272152003</v>
+        <v>1118.319295447422</v>
       </c>
       <c r="N3">
-        <v>490.0649656022044</v>
+        <v>1388.897670825162</v>
       </c>
       <c r="O3">
-        <v>521.5951207463313</v>
+        <v>1552.471962157488</v>
       </c>
       <c r="P3">
-        <v>588.1798280288111</v>
+        <v>1881.462627324152</v>
       </c>
       <c r="Q3">
-        <v>655.5521148609917</v>
+        <v>2235.791496828612</v>
       </c>
       <c r="R3">
-        <v>723.7375687992175</v>
+        <v>2615.531125150616</v>
       </c>
       <c r="S3">
-        <v>899.2839942579321</v>
+        <v>3450.209535394722</v>
       </c>
       <c r="T3">
-        <v>1074.774586725138</v>
+        <v>4344.490526039443</v>
       </c>
       <c r="U3">
-        <v>1250.583599189588</v>
+        <v>5298.508088687082</v>
       </c>
       <c r="V3">
-        <v>1427.166516057302</v>
+        <v>6312.482928981297</v>
       </c>
       <c r="W3">
-        <v>1604.577132927223</v>
+        <v>7386.600057139112</v>
       </c>
       <c r="X3">
-        <v>1767.285041001685</v>
+        <v>8462.709459010175</v>
       </c>
       <c r="Y3">
-        <v>1931.087351844984</v>
+        <v>9593.984540576859</v>
       </c>
       <c r="Z3">
-        <v>2095.768725308029</v>
+        <v>10780.57191104317</v>
       </c>
       <c r="AA3">
-        <v>2261.456439902241</v>
+        <v>12022.77604597561</v>
       </c>
       <c r="AB3">
-        <v>2429.532122636679</v>
+        <v>13321.01704139558</v>
       </c>
       <c r="AC3">
-        <v>2479.275926071864</v>
+        <v>13904.54934601386</v>
       </c>
       <c r="AD3">
-        <v>2533.179054089969</v>
+        <v>14498.83049183246</v>
       </c>
       <c r="AE3">
-        <v>2591.130887638697</v>
+        <v>15104.98570485607</v>
       </c>
       <c r="AF3">
-        <v>2649.05395559757</v>
+        <v>15723.24529999344</v>
       </c>
       <c r="AG3">
-        <v>2705.890355669168</v>
+        <v>16354.70332747916</v>
       </c>
       <c r="AH3">
-        <v>2746.035644009746</v>
+        <v>16724.64260194465</v>
       </c>
       <c r="AI3">
-        <v>2785.686584728286</v>
+        <v>17093.3771446321</v>
       </c>
       <c r="AJ3">
-        <v>2824.632161874794</v>
+        <v>17464.6452247254</v>
       </c>
       <c r="AK3">
-        <v>2863.293856439715</v>
+        <v>17842.63529382363</v>
       </c>
       <c r="AL3">
-        <v>2905.598029514008</v>
+        <v>18227.95748984058</v>
       </c>
       <c r="AM3">
-        <v>2955.473872635357</v>
+        <v>18745.3844594214</v>
       </c>
       <c r="AN3">
-        <v>3013.66332590233</v>
+        <v>19285.19790290532</v>
       </c>
       <c r="AO3">
-        <v>3083.439188069879</v>
+        <v>19854.09744869354</v>
       </c>
       <c r="AP3">
-        <v>3167.907936939046</v>
+        <v>20458.77884819371</v>
       </c>
       <c r="AQ3">
-        <v>3260.216845028371</v>
+        <v>21090.73877417464</v>
       </c>
       <c r="AR3">
-        <v>3353.840168487083</v>
+        <v>21962.27440904633</v>
       </c>
       <c r="AS3">
-        <v>3447.916907329465</v>
+        <v>22857.57676169354</v>
       </c>
       <c r="AT3">
-        <v>3541.612773860114</v>
+        <v>23773.53414253153</v>
       </c>
       <c r="AU3">
-        <v>3634.199361297285</v>
+        <v>24706.86205710231</v>
       </c>
       <c r="AV3">
-        <v>3727.106382233069</v>
+        <v>25656.02508019355</v>
       </c>
       <c r="AW3">
-        <v>3819.375909408146</v>
+        <v>26667.07000415897</v>
       </c>
       <c r="AX3">
-        <v>3927.353960704728</v>
+        <v>27680.9453722829</v>
       </c>
       <c r="AY3">
-        <v>4026.04521647486</v>
+        <v>28678.98340162129</v>
       </c>
       <c r="AZ3">
-        <v>4111.949321797105</v>
+        <v>29647.35919849681</v>
       </c>
       <c r="BA3">
-        <v>4192.397047031405</v>
+        <v>30602.29497848418</v>
       </c>
       <c r="BB3">
-        <v>4271.090846869224</v>
+        <v>31499.49075813448</v>
       </c>
       <c r="BC3">
-        <v>4349.038737768587</v>
+        <v>32396.74645025201</v>
       </c>
       <c r="BD3">
-        <v>4424.596145876495</v>
+        <v>33288.82429854057</v>
       </c>
       <c r="BE3">
-        <v>4497.358874030308</v>
+        <v>34172.77170960551</v>
       </c>
       <c r="BF3">
-        <v>4568.620169484851</v>
+        <v>35057.51201682776</v>
       </c>
       <c r="BG3">
-        <v>4637.691551047781</v>
+        <v>35909.68737531865</v>
       </c>
       <c r="BH3">
-        <v>4708.802637994604</v>
+        <v>36778.12294046961</v>
       </c>
       <c r="BI3">
-        <v>4784.729377903731</v>
+        <v>37669.55569326145</v>
       </c>
       <c r="BJ3">
-        <v>4868.206282439599</v>
+        <v>38590.93318917236</v>
       </c>
       <c r="BK3">
-        <v>4961.10511044593</v>
+        <v>39545.24217061757</v>
       </c>
       <c r="BL3">
-        <v>5062.671768498775</v>
+        <v>40510.31429099308</v>
       </c>
       <c r="BM3">
-        <v>5173.788709028938</v>
+        <v>41513.27710795641</v>
       </c>
       <c r="BN3">
-        <v>5290.841634531978</v>
+        <v>42555.13346433386</v>
       </c>
       <c r="BO3">
-        <v>5410.050554094004</v>
+        <v>43634.10293568332</v>
       </c>
       <c r="BP3">
-        <v>5529.627233746081</v>
+        <v>44741.4465232186</v>
       </c>
       <c r="BQ3">
-        <v>5647.757199223678</v>
+        <v>45856.95440721819</v>
       </c>
       <c r="BR3">
-        <v>5765.462253279022</v>
+        <v>46990.52342970296</v>
       </c>
       <c r="BS3">
-        <v>5882.722542095114</v>
+        <v>48139.56771271896</v>
       </c>
       <c r="BT3">
-        <v>5999.159658552894</v>
+        <v>49298.36488465655</v>
       </c>
       <c r="BU3">
-        <v>6112.984966688857</v>
+        <v>50455.94977832035</v>
       </c>
       <c r="BV3">
-        <v>6219.496212696604</v>
+        <v>51586.26541793515</v>
       </c>
       <c r="BW3">
-        <v>6318.909635407103</v>
+        <v>52701.07848637438</v>
       </c>
       <c r="BX3">
-        <v>6414.174461010539</v>
+        <v>53805.52808448386</v>
       </c>
       <c r="BY3">
-        <v>6508.003268980793</v>
+        <v>54905.6645653611</v>
       </c>
       <c r="BZ3">
-        <v>6600.788778686661</v>
+        <v>56003.80588599399</v>
       </c>
       <c r="CA3">
-        <v>6690.74816088481</v>
+        <v>57085.51333202451</v>
       </c>
       <c r="CB3">
-        <v>6779.253261222858</v>
+        <v>58164.97298997999</v>
       </c>
       <c r="CC3">
-        <v>6867.297941267205</v>
+        <v>59246.52213740017</v>
       </c>
       <c r="CD3">
-        <v>6956.518674051268</v>
+        <v>60336.48560233351</v>
       </c>
       <c r="CE3">
-        <v>7049.11551646296</v>
+        <v>61442.03486396878</v>
       </c>
       <c r="CF3">
-        <v>7146.049393877619</v>
+        <v>62551.99414364769</v>
       </c>
       <c r="CG3">
-        <v>7250.690207935876</v>
+        <v>63687.80197647319</v>
       </c>
       <c r="CH3">
-        <v>7364.046344702321</v>
+        <v>64851.99984142987</v>
       </c>
       <c r="CI3">
-        <v>7485.907507909085</v>
+        <v>66046.33859663759</v>
       </c>
       <c r="CJ3">
-        <v>7614.782916857579</v>
+        <v>67272.75461136828</v>
       </c>
       <c r="CK3">
-        <v>7746.194042813179</v>
+        <v>68504.21421076613</v>
       </c>
       <c r="CL3">
-        <v>7879.577360847748</v>
+        <v>69763.85763224622</v>
       </c>
       <c r="CM3">
-        <v>8013.337981205836</v>
+        <v>71046.03268692718</v>
       </c>
       <c r="CN3">
-        <v>8146.759635106838</v>
+        <v>72345.47521754105</v>
       </c>
       <c r="CO3">
-        <v>8279.550162140069</v>
+        <v>73658.80009138038</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474389.70802449</v>
+        <v>1624027.93576526</v>
       </c>
       <c r="E4">
-        <v>52898111.71054062</v>
+        <v>3082746.495185522</v>
       </c>
       <c r="F4">
-        <v>82052613.0661411</v>
+        <v>4356093.544420973</v>
       </c>
       <c r="G4">
-        <v>111342880.7608214</v>
+        <v>5833026.399365086</v>
       </c>
       <c r="H4">
-        <v>137979262.1405398</v>
+        <v>7455927.730041503</v>
       </c>
       <c r="I4">
-        <v>164145737.1239891</v>
+        <v>8998045.109283037</v>
       </c>
       <c r="J4">
-        <v>193025455.3541489</v>
+        <v>10674204.58712199</v>
       </c>
       <c r="K4">
-        <v>225729236.2648528</v>
+        <v>12210686.85108893</v>
       </c>
       <c r="L4">
-        <v>258162701.9865503</v>
+        <v>13735667.11093684</v>
       </c>
       <c r="M4">
-        <v>292691087.7902386</v>
+        <v>15768316.98832248</v>
       </c>
       <c r="N4">
-        <v>330049741.490342</v>
+        <v>17691918.15654547</v>
       </c>
       <c r="O4">
-        <v>364637811.4269739</v>
+        <v>19589608.8408746</v>
       </c>
       <c r="P4">
-        <v>402130299.3803187</v>
+        <v>29485140.46645747</v>
       </c>
       <c r="Q4">
-        <v>440918339.7596482</v>
+        <v>39408690.77843451</v>
       </c>
       <c r="R4">
-        <v>481004711.6885517</v>
+        <v>49356482.17006473</v>
       </c>
       <c r="S4">
-        <v>524439073.6265034</v>
+        <v>80550421.78369266</v>
       </c>
       <c r="T4">
-        <v>569308611.3172781</v>
+        <v>111792292.7299137</v>
       </c>
       <c r="U4">
-        <v>615611100.8654695</v>
+        <v>143084862.2168691</v>
       </c>
       <c r="V4">
-        <v>663345159.1351168</v>
+        <v>174430257.1597565</v>
       </c>
       <c r="W4">
-        <v>712510362.9705482</v>
+        <v>205829938.6242362</v>
       </c>
       <c r="X4">
-        <v>762835389.8818529</v>
+        <v>238130095.1097999</v>
       </c>
       <c r="Y4">
-        <v>814493261.8042397</v>
+        <v>270483231.2280125</v>
       </c>
       <c r="Z4">
-        <v>867485257.8116709</v>
+        <v>302885751.1120949</v>
       </c>
       <c r="AA4">
-        <v>921811059.7662047</v>
+        <v>335336906.7015655</v>
       </c>
       <c r="AB4">
-        <v>977467276.1856773</v>
+        <v>367835456.1707087</v>
       </c>
       <c r="AC4">
-        <v>1032239087.238873</v>
+        <v>376295254.6922675</v>
       </c>
       <c r="AD4">
-        <v>1088339030.278931</v>
+        <v>384777938.6519393</v>
       </c>
       <c r="AE4">
-        <v>1145763346.389084</v>
+        <v>393281881.3286551</v>
       </c>
       <c r="AF4">
-        <v>1204512846.204082</v>
+        <v>401790840.4779571</v>
       </c>
       <c r="AG4">
-        <v>1264582462.585143</v>
+        <v>410304547.8242645</v>
       </c>
       <c r="AH4">
-        <v>1325599459.126122</v>
+        <v>411240184.9072421</v>
       </c>
       <c r="AI4">
-        <v>1387934686.601331</v>
+        <v>411990836.0640867</v>
       </c>
       <c r="AJ4">
-        <v>1451571085.258567</v>
+        <v>412617858.3419694</v>
       </c>
       <c r="AK4">
-        <v>1516486907.641289</v>
+        <v>413209931.7570928</v>
       </c>
       <c r="AL4">
-        <v>1582652974.398741</v>
+        <v>413760297.7413059</v>
       </c>
       <c r="AM4">
-        <v>1650016598.433454</v>
+        <v>417713901.2738881</v>
       </c>
       <c r="AN4">
-        <v>1718563781.574659</v>
+        <v>421805431.117509</v>
       </c>
       <c r="AO4">
-        <v>1788270367.358803</v>
+        <v>426077999.9414009</v>
       </c>
       <c r="AP4">
-        <v>1859118600.266452</v>
+        <v>430579689.4131359</v>
       </c>
       <c r="AQ4">
-        <v>1931152138.713227</v>
+        <v>435204469.552217</v>
       </c>
       <c r="AR4">
-        <v>2004405590.28101</v>
+        <v>444868385.9289111</v>
       </c>
       <c r="AS4">
-        <v>2078903018.092858</v>
+        <v>454539956.3049483</v>
       </c>
       <c r="AT4">
-        <v>2154673759.544345</v>
+        <v>464203189.6218739</v>
       </c>
       <c r="AU4">
-        <v>2231750472.344055</v>
+        <v>473843440.2961717</v>
       </c>
       <c r="AV4">
-        <v>2310361480.911663</v>
+        <v>483462035.4701402</v>
       </c>
       <c r="AW4">
-        <v>2390484975.923928</v>
+        <v>494385421.6151634</v>
       </c>
       <c r="AX4">
-        <v>2472220612.9875</v>
+        <v>505215601.7441915</v>
       </c>
       <c r="AY4">
-        <v>2555514811.372158</v>
+        <v>515850094.6488909</v>
       </c>
       <c r="AZ4">
-        <v>2640405877.967537</v>
+        <v>526223680.1962963</v>
       </c>
       <c r="BA4">
-        <v>2726860636.664068</v>
+        <v>536458909.800369</v>
       </c>
       <c r="BB4">
-        <v>2814887943.877829</v>
+        <v>545724200.6894939</v>
       </c>
       <c r="BC4">
-        <v>2904525227.294938</v>
+        <v>554958985.5034622</v>
       </c>
       <c r="BD4">
-        <v>2995765313.255754</v>
+        <v>564176662.6044525</v>
       </c>
       <c r="BE4">
-        <v>3088591221.497591</v>
+        <v>573431128.1885695</v>
       </c>
       <c r="BF4">
-        <v>3182971152.673337</v>
+        <v>582686665.3257418</v>
       </c>
       <c r="BG4">
-        <v>3278903614.922317</v>
+        <v>591382901.2665267</v>
       </c>
       <c r="BH4">
-        <v>3376396446.248879</v>
+        <v>600059283.6801788</v>
       </c>
       <c r="BI4">
-        <v>3475416487.653903</v>
+        <v>608829290.5057943</v>
       </c>
       <c r="BJ4">
-        <v>3575934757.829652</v>
+        <v>617751307.5901411</v>
       </c>
       <c r="BK4">
-        <v>3677928605.288768</v>
+        <v>626841759.1118485</v>
       </c>
       <c r="BL4">
-        <v>3781402133.762232</v>
+        <v>635979686.9634016</v>
       </c>
       <c r="BM4">
-        <v>3886386259.822044</v>
+        <v>645286209.0401751</v>
       </c>
       <c r="BN4">
-        <v>3992899747.913295</v>
+        <v>654726404.7666683</v>
       </c>
       <c r="BO4">
-        <v>4100965987.44886</v>
+        <v>664253690.4214995</v>
       </c>
       <c r="BP4">
-        <v>4210600545.599026</v>
+        <v>673809707.3791137</v>
       </c>
       <c r="BQ4">
-        <v>4321902100.225595</v>
+        <v>683336516.6755364</v>
       </c>
       <c r="BR4">
-        <v>4434904383.103848</v>
+        <v>692840495.2686327</v>
       </c>
       <c r="BS4">
-        <v>4549620291.751823</v>
+        <v>702309347.8691254</v>
       </c>
       <c r="BT4">
-        <v>4666066476.857984</v>
+        <v>711713889.3956572</v>
       </c>
       <c r="BU4">
-        <v>4784268488.47716</v>
+        <v>720999763.6725</v>
       </c>
       <c r="BV4">
-        <v>4904318301.342665</v>
+        <v>729975809.4200033</v>
       </c>
       <c r="BW4">
-        <v>5026255390.521093</v>
+        <v>738784657.1140562</v>
       </c>
       <c r="BX4">
-        <v>5150071720.047207</v>
+        <v>747547953.9221884</v>
       </c>
       <c r="BY4">
-        <v>5275756263.50896</v>
+        <v>756374950.0350621</v>
       </c>
       <c r="BZ4">
-        <v>5403307740.744843</v>
+        <v>765221621.5273896</v>
       </c>
       <c r="CA4">
-        <v>5532790766.629826</v>
+        <v>773858348.3722395</v>
       </c>
       <c r="CB4">
-        <v>5664223694.75075</v>
+        <v>782480548.3732554</v>
       </c>
       <c r="CC4">
-        <v>5797594782.291732</v>
+        <v>791077458.0866812</v>
       </c>
       <c r="CD4">
-        <v>5932886897.579251</v>
+        <v>799631978.7066885</v>
       </c>
       <c r="CE4">
-        <v>6070079665.995872</v>
+        <v>808101830.6120485</v>
       </c>
       <c r="CF4">
-        <v>6209217030.765693</v>
+        <v>816261362.8345507</v>
       </c>
       <c r="CG4">
-        <v>6350305600.961192</v>
+        <v>824557189.1630409</v>
       </c>
       <c r="CH4">
-        <v>6493331368.491646</v>
+        <v>833001318.6829681</v>
       </c>
       <c r="CI4">
-        <v>6638287330.485276</v>
+        <v>841589932.9548817</v>
       </c>
       <c r="CJ4">
-        <v>6785175011.9701</v>
+        <v>850306893.8834078</v>
       </c>
       <c r="CK4">
-        <v>6934053743.574102</v>
+        <v>858553349.0422686</v>
       </c>
       <c r="CL4">
-        <v>7084969570.839139</v>
+        <v>866854263.0272412</v>
       </c>
       <c r="CM4">
-        <v>7237931173.154498</v>
+        <v>875168435.5321285</v>
       </c>
       <c r="CN4">
-        <v>7392944478.193837</v>
+        <v>883465280.8775899</v>
       </c>
       <c r="CO4">
-        <v>7550015060.177822</v>
+        <v>891725011.2565213</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694767.465953461</v>
+        <v>2149411.454479808</v>
       </c>
       <c r="E5">
-        <v>2832150.963062787</v>
+        <v>3588538.270149964</v>
       </c>
       <c r="F5">
-        <v>3402173.929044982</v>
+        <v>4933354.770984577</v>
       </c>
       <c r="G5">
-        <v>3752402.430942694</v>
+        <v>6228872.867342589</v>
       </c>
       <c r="H5">
-        <v>4080598.780537657</v>
+        <v>7471300.443573274</v>
       </c>
       <c r="I5">
-        <v>4313196.155118831</v>
+        <v>9022734.94992237</v>
       </c>
       <c r="J5">
-        <v>4503186.525693682</v>
+        <v>10727602.81960432</v>
       </c>
       <c r="K5">
-        <v>4748304.998539856</v>
+        <v>12206299.80955073</v>
       </c>
       <c r="L5">
-        <v>5193651.22191659</v>
+        <v>13569051.86878344</v>
       </c>
       <c r="M5">
-        <v>5582325.676586383</v>
+        <v>15087521.00695198</v>
       </c>
       <c r="N5">
-        <v>6071262.210156015</v>
+        <v>16672752.06916637</v>
       </c>
       <c r="O5">
-        <v>6684461.686945837</v>
+        <v>18737958.04264602</v>
       </c>
       <c r="P5">
-        <v>10721695.43444968</v>
+        <v>34977820.28134446</v>
       </c>
       <c r="Q5">
-        <v>14763910.46754047</v>
+        <v>51217720.61824248</v>
       </c>
       <c r="R5">
-        <v>18812243.25365811</v>
+        <v>67457257.92395446</v>
       </c>
       <c r="S5">
-        <v>31677489.78890768</v>
+        <v>121497827.6953233</v>
       </c>
       <c r="T5">
-        <v>44551353.00184551</v>
+        <v>175536497.4766757</v>
       </c>
       <c r="U5">
-        <v>57435070.36534558</v>
+        <v>229571821.3106937</v>
       </c>
       <c r="V5">
-        <v>70329797.79458444</v>
+        <v>283601638.5055399</v>
       </c>
       <c r="W5">
-        <v>83236562.97508371</v>
+        <v>337622741.6485994</v>
       </c>
       <c r="X5">
-        <v>95576230.87484258</v>
+        <v>394428206.7846025</v>
       </c>
       <c r="Y5">
-        <v>107929597.5261672</v>
+        <v>451213531.8647678</v>
       </c>
       <c r="Z5">
-        <v>120297436.7835534</v>
+        <v>507969266.6539944</v>
       </c>
       <c r="AA5">
-        <v>132680744.4810282</v>
+        <v>564682499.1826565</v>
       </c>
       <c r="AB5">
-        <v>145081088.483283</v>
+        <v>621336007.5549364</v>
       </c>
       <c r="AC5">
-        <v>147210618.4944869</v>
+        <v>636189647.4239913</v>
       </c>
       <c r="AD5">
-        <v>149364122.0217145</v>
+        <v>650932426.471886</v>
       </c>
       <c r="AE5">
-        <v>151548251.8667057</v>
+        <v>665528406.9232397</v>
       </c>
       <c r="AF5">
-        <v>153772653.7101228</v>
+        <v>679933440.0044025</v>
       </c>
       <c r="AG5">
-        <v>156050442.2071396</v>
+        <v>694094402.0416582</v>
       </c>
       <c r="AH5">
-        <v>156451836.4511885</v>
+        <v>693972543.4941368</v>
       </c>
       <c r="AI5">
-        <v>156943504.1216254</v>
+        <v>693276353.7659541</v>
       </c>
       <c r="AJ5">
-        <v>157548215.3947129</v>
+        <v>691885530.6983585</v>
       </c>
       <c r="AK5">
-        <v>158290141.9902747</v>
+        <v>689931729.3052125</v>
       </c>
       <c r="AL5">
-        <v>159193180.4929778</v>
+        <v>687348816.1873797</v>
       </c>
       <c r="AM5">
-        <v>160278932.5395541</v>
+        <v>689959784.251495</v>
       </c>
       <c r="AN5">
-        <v>161564467.9930091</v>
+        <v>691790550.1889592</v>
       </c>
       <c r="AO5">
-        <v>163060060.3537524</v>
+        <v>692792508.6621819</v>
       </c>
       <c r="AP5">
-        <v>164767082.6367686</v>
+        <v>692946643.0928706</v>
       </c>
       <c r="AQ5">
-        <v>166676342.3348276</v>
+        <v>692271048.8007777</v>
       </c>
       <c r="AR5">
-        <v>168767222.8811891</v>
+        <v>699029068.2760324</v>
       </c>
       <c r="AS5">
-        <v>171007846.8106022</v>
+        <v>705120968.9549268</v>
       </c>
       <c r="AT5">
-        <v>173356480.6007294</v>
+        <v>710689536.4369543</v>
       </c>
       <c r="AU5">
-        <v>175764165.415897</v>
+        <v>715908448.4647356</v>
       </c>
       <c r="AV5">
-        <v>179491146.3927887</v>
+        <v>720969793.1359216</v>
       </c>
       <c r="AW5">
-        <v>183544051.1368544</v>
+        <v>728468273.2995725</v>
       </c>
       <c r="AX5">
-        <v>187504092.4070518</v>
+        <v>736188600.9458061</v>
       </c>
       <c r="AY5">
-        <v>191332192.0925639</v>
+        <v>744288773.9523153</v>
       </c>
       <c r="AZ5">
-        <v>195000278.2250666</v>
+        <v>752889836.3758736</v>
       </c>
       <c r="BA5">
-        <v>198492916.8576908</v>
+        <v>762068075.6503633</v>
       </c>
       <c r="BB5">
-        <v>201617122.7377242</v>
+        <v>770453770.8704841</v>
       </c>
       <c r="BC5">
-        <v>204574173.8625927</v>
+        <v>779420577.2391526</v>
       </c>
       <c r="BD5">
-        <v>207386067.6379225</v>
+        <v>788897561.3575385</v>
       </c>
       <c r="BE5">
-        <v>210084130.0003169</v>
+        <v>798772129.2842754</v>
       </c>
       <c r="BF5">
-        <v>212706117.7531422</v>
+        <v>808899561.2891462</v>
       </c>
       <c r="BG5">
-        <v>215104658.9274055</v>
+        <v>818344185.4459008</v>
       </c>
       <c r="BH5">
-        <v>217508266.0275032</v>
+        <v>827705793.2143097</v>
       </c>
       <c r="BI5">
-        <v>219953796.5111621</v>
+        <v>836819129.1410154</v>
       </c>
       <c r="BJ5">
-        <v>222472419.5913225</v>
+        <v>845535297.0973798</v>
       </c>
       <c r="BK5">
-        <v>225088396.8040837</v>
+        <v>853729235.372447</v>
       </c>
       <c r="BL5">
-        <v>227677215.9261306</v>
+        <v>861199192.8178484</v>
       </c>
       <c r="BM5">
-        <v>230390278.3093862</v>
+        <v>867985679.0726088</v>
       </c>
       <c r="BN5">
-        <v>233230828.8502293</v>
+        <v>874056680.7627527</v>
       </c>
       <c r="BO5">
-        <v>236196002.811429</v>
+        <v>879413092.2088531</v>
       </c>
       <c r="BP5">
-        <v>239277426.0796836</v>
+        <v>884087254.2289553</v>
       </c>
       <c r="BQ5">
-        <v>242363227.4977373</v>
+        <v>888164024.6426603</v>
       </c>
       <c r="BR5">
-        <v>245534904.4133316</v>
+        <v>891703601.056531</v>
       </c>
       <c r="BS5">
-        <v>248772204.8108706</v>
+        <v>894808052.946623</v>
       </c>
       <c r="BT5">
-        <v>252052863.4253182</v>
+        <v>897590353.0845461</v>
       </c>
       <c r="BU5">
-        <v>255353733.6900007</v>
+        <v>900167045.6374384</v>
       </c>
       <c r="BV5">
-        <v>258555699.5697609</v>
+        <v>902431237.3287797</v>
       </c>
       <c r="BW5">
-        <v>261733834.5511274</v>
+        <v>904704198.9670446</v>
       </c>
       <c r="BX5">
-        <v>264869753.3661917</v>
+        <v>907070397.8492035</v>
       </c>
       <c r="BY5">
-        <v>267949080.5439342</v>
+        <v>909592260.8502532</v>
       </c>
       <c r="BZ5">
-        <v>270962412.5170617</v>
+        <v>912307135.9677198</v>
       </c>
       <c r="CA5">
-        <v>273804858.1270727</v>
+        <v>914835326.6314656</v>
       </c>
       <c r="CB5">
-        <v>276579511.1961621</v>
+        <v>917553577.9998721</v>
       </c>
       <c r="CC5">
-        <v>279293818.3258147</v>
+        <v>920424677.0834663</v>
       </c>
       <c r="CD5">
-        <v>281959866.2511618</v>
+        <v>923392125.5860666</v>
       </c>
       <c r="CE5">
-        <v>284593181.3725199</v>
+        <v>926384958.1223104</v>
       </c>
       <c r="CF5">
-        <v>287097307.944836</v>
+        <v>928652829.5052297</v>
       </c>
       <c r="CG5">
-        <v>289604373.0052093</v>
+        <v>930783280.5058768</v>
       </c>
       <c r="CH5">
-        <v>292131694.867278</v>
+        <v>932695893.1076623</v>
       </c>
       <c r="CI5">
-        <v>294694665.7003872</v>
+        <v>934317877.0733532</v>
       </c>
       <c r="CJ5">
-        <v>297305880.9413239</v>
+        <v>935588241.7133833</v>
       </c>
       <c r="CK5">
-        <v>299818735.4331708</v>
+        <v>935408536.9890618</v>
       </c>
       <c r="CL5">
-        <v>302394586.3080318</v>
+        <v>934801865.9959607</v>
       </c>
       <c r="CM5">
-        <v>305035216.563655</v>
+        <v>933756514.6722984</v>
       </c>
       <c r="CN5">
-        <v>307738850.2942325</v>
+        <v>932277981.1574038</v>
       </c>
       <c r="CO5">
-        <v>310500525.0444088</v>
+        <v>930387588.2117683</v>
       </c>
     </row>
   </sheetData>
